--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\MaSc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FBF80D-7B51-4248-AB17-26DA62C97CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5189AFA4-CCA2-4869-B2D5-A3960B7D1F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
   <si>
     <t>File</t>
   </si>
@@ -390,13 +390,17 @@
   </si>
   <si>
     <t>I can redo this audit but just logically run through it without validating each and every line of code (efficiency)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am confident that error is negligible in flux conservation (e-18).
+I am also confident that LU Decomp error is negligibile (e-14) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +435,15 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -531,7 +544,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,6 +582,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,10 +810,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5200</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,10 +825,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5200</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,13 +1542,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" dataCellStyle="20% - Accent6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
   <autoFilter ref="A1:D56" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ADF9976C-3728-4AE8-9012-BAC5000E278E}" name="File" dataDxfId="5" dataCellStyle="20% - Accent6"/>
-    <tableColumn id="2" xr3:uid="{DCF9D3B5-6084-45FA-BA63-46EDD5E814FA}" name="Function" dataDxfId="4" dataCellStyle="20% - Accent6"/>
-    <tableColumn id="3" xr3:uid="{19841559-746B-4802-B94A-070508EA6EC3}" name="Confidence" dataDxfId="3" dataCellStyle="20% - Accent6"/>
-    <tableColumn id="6" xr3:uid="{043502F3-9DD9-42A9-873C-52F0D72B03B5}" name="Comment" dataDxfId="2" dataCellStyle="20% - Accent6"/>
+    <tableColumn id="1" xr3:uid="{ADF9976C-3728-4AE8-9012-BAC5000E278E}" name="File" dataDxfId="3" dataCellStyle="20% - Accent6"/>
+    <tableColumn id="2" xr3:uid="{DCF9D3B5-6084-45FA-BA63-46EDD5E814FA}" name="Function" dataDxfId="2" dataCellStyle="20% - Accent6"/>
+    <tableColumn id="3" xr3:uid="{19841559-746B-4802-B94A-070508EA6EC3}" name="Confidence" dataDxfId="1" dataCellStyle="20% - Accent6"/>
+    <tableColumn id="6" xr3:uid="{043502F3-9DD9-42A9-873C-52F0D72B03B5}" name="Comment" dataDxfId="0" dataCellStyle="20% - Accent6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1837,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,13 +1910,13 @@
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>Model</v>
+        <v>LimMotor</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -1918,13 +1934,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>updateGrid</v>
+        <v>Error</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -1942,13 +1958,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>main</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -1969,7 +1985,7 @@
         <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>LimMotor</v>
+        <v>timing</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -1992,16 +2008,16 @@
         <v>49</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>Error</v>
+        <v>Grid</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
+      <c r="I6" s="7" t="str">
+        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2016,10 +2032,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>Node</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -2040,10 +2056,10 @@
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>timing</v>
+        <v>Region</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -2067,13 +2083,13 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>Grid</v>
+        <v>reluctance</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
       </c>
-      <c r="I9" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+      <c r="I9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2091,7 +2107,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>Node</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -2115,7 +2131,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>Region</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -2139,7 +2155,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>reluctance</v>
+        <v>buildGrid</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -2163,7 +2179,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -2187,7 +2203,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -2204,14 +2220,14 @@
         <v>50</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>buildGrid</v>
+        <v>Model</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -2234,16 +2250,16 @@
         <v>109</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
+      <c r="I16" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2258,10 +2274,10 @@
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>dirichlet</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -2285,13 +2301,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>hmHm</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
       </c>
-      <c r="I18" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I18" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -2311,13 +2327,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>dirichlet</v>
+        <v>mecHm</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
+      <c r="I19" s="7" t="str">
+        <v>TODO for 2/Tper but I calculated 1/Tper. I still need to review my math with someone for the understanding of this boundary condition</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2335,7 +2351,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>hmHm</v>
+        <v>mec</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -2359,13 +2375,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>mecHm</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
       </c>
-      <c r="I21" s="7" t="str">
-        <v>TODO for 2/Tper but I calculated 1/Tper. I still need to review my math with someone for the understanding of this boundary condition</v>
+      <c r="I21" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2383,7 +2399,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>mec</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -2407,7 +2423,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -2431,7 +2447,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>preEqn8</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -2455,7 +2471,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>postEqn8</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -2479,7 +2495,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>preEqn8</v>
+        <v>postEqn9</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -2503,7 +2519,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>postEqn8</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -2527,7 +2543,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -2551,7 +2567,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>preEqn21</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -2575,7 +2591,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>postEqn21</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -2601,13 +2617,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>preEqn21</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
       </c>
-      <c r="I31" s="7">
-        <v>0</v>
+      <c r="I31" s="7" t="str">
+        <v>Assuming my math is right</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2625,7 +2641,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>postEqn21</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -2649,13 +2665,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
       </c>
-      <c r="I33" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I33" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2673,7 +2689,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H34" s="7">
         <v>100</v>
@@ -2697,7 +2713,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2721,7 +2737,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H36" s="7">
         <v>100</v>
@@ -2745,7 +2761,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>updateLists</v>
       </c>
       <c r="H37" s="7">
         <v>100</v>
@@ -2769,7 +2785,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -2793,7 +2809,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>updateLists</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H39" s="7">
         <v>100</v>
@@ -2819,13 +2835,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>genForces</v>
       </c>
       <c r="H40" s="7">
         <v>100</v>
       </c>
-      <c r="I40" s="7">
-        <v>0</v>
+      <c r="I40" s="7" t="str">
+        <v>*</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,7 +2859,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -2860,20 +2876,20 @@
         <v>52</v>
       </c>
       <c r="C42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D42" s="3"/>
       <c r="F42" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>genForces</v>
+        <v>updateGrid</v>
       </c>
       <c r="H42" s="7">
         <v>100</v>
       </c>
-      <c r="I42" s="7" t="str">
-        <v>*</v>
+      <c r="I42" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2890,16 +2906,16 @@
         <v>65</v>
       </c>
       <c r="F43" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G43" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>colorFader</v>
       </c>
       <c r="H43" s="7">
         <v>100</v>
       </c>
-      <c r="I43" s="7">
-        <v>0</v>
+      <c r="I43" s="7" t="str">
+        <v>*</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2919,7 +2935,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>colorFader</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -2945,7 +2961,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>determineColour</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -2971,7 +2987,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>determineColour</v>
+        <v>minMaxField</v>
       </c>
       <c r="H46" s="7">
         <v>100</v>
@@ -2997,7 +3013,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>minMaxField</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -3023,7 +3039,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
@@ -3049,7 +3065,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H49" s="7">
         <v>100</v>
@@ -3075,7 +3091,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>showModel</v>
       </c>
       <c r="H50" s="7">
         <v>100</v>
@@ -3098,10 +3114,10 @@
         <v>65</v>
       </c>
       <c r="F51" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>showModel</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H51" s="7">
         <v>100</v>
@@ -3127,7 +3143,7 @@
         <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>main</v>
       </c>
       <c r="H52" s="7">
         <v>100</v>
@@ -3150,10 +3166,10 @@
         <v>65</v>
       </c>
       <c r="F53" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>Platypus</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>main</v>
+        <v>destruct</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
@@ -3179,7 +3195,7 @@
         <v>Platypus</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>destruct</v>
+        <v>construct</v>
       </c>
       <c r="H54" s="7">
         <v>100</v>
@@ -3205,7 +3221,7 @@
         <v>Platypus</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>construct</v>
+        <v>jsonStoreSolution</v>
       </c>
       <c r="H55" s="7">
         <v>100</v>
@@ -3222,14 +3238,16 @@
         <v>39</v>
       </c>
       <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F56" s="7" t="str">
         <v>Platypus</v>
       </c>
       <c r="G56" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>main</v>
       </c>
       <c r="H56" s="7">
         <v>100</v>
@@ -3244,11 +3262,11 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -3268,12 +3286,15 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>70</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3309,7 +3330,7 @@
   <dimension ref="A1:EB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\MaSc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5189AFA4-CCA2-4869-B2D5-A3960B7D1F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957C998-E2E3-4045-AC9A-71653D105164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="24408" yWindow="-2412" windowWidth="21600" windowHeight="11388" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>File</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>Note: What is interesting from the note on the left is that as I increase pixelDiv, the error seen in the linalg_lu solution is still very low and stays roughly constant meaning that linalg_lu is valid for all but the values being passed in may be garbage</t>
-  </si>
-  <si>
-    <t>Note: Some things I can still try are  checking how I assigned an and bn after solving the matrix. Also I run sims at pixelDiv at 2 but I should go once through it all at Div 4 and make sure it still looks correct. Also what is weird is that the airgap plot looks more correct at Div = 2 than Div = 15 which makes me think there is an error in the mec region. I wonder if this is because of the MMF scaling</t>
-  </si>
-  <si>
-    <t>What I should look into is the MMF scaling again</t>
   </si>
   <si>
     <t>Try different values for pixelDiv and write down all the expected values on the excel sheet like Y_bc and the indexes</t>
@@ -394,6 +388,21 @@
   <si>
     <t xml:space="preserve">I am confident that error is negligible in flux conservation (e-18).
 I am also confident that LU Decomp error is negligibile (e-14) </t>
+  </si>
+  <si>
+    <t>What I don’t understand in the 2019 paper is that phase rotation in + direction is A, C, B</t>
+  </si>
+  <si>
+    <t>One possible thing to try if all else fails is to transpose the coordinate system of tkinter to be normal in case that messed me up somewhere</t>
+  </si>
+  <si>
+    <t>MAKE SURE THE ASSUMPTIONS IN 2019 TABLE 1 MATCH MY STUFF. Document any deviation</t>
+  </si>
+  <si>
+    <t>Note: the airgap plot looks more correct at Div = 2 than Div = 15 which makes me think there is an error in the mec region</t>
+  </si>
+  <si>
+    <t>Something really interesting with the plot of the error of the conservation of flux equation after solving the linear system of equations is that when leaving mmf in an normal state I see max error e^-18 but if I purposfully introduce an error I still see  a really low error like e^-19. this means that an error in MMF early is not caught by this plot. Question is what is this plot used for</t>
   </si>
 </sst>
 </file>
@@ -1853,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2247,7 +2256,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
@@ -2321,7 +2330,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="str">
         <v>LIM_Compute</v>
@@ -2360,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" s="7" t="str">
         <v>LIM_Compute</v>
@@ -3269,12 +3278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>67</v>
@@ -3288,20 +3297,29 @@
     </row>
     <row r="60" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="B62" s="7"/>
+      <c r="C62" s="15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -3330,7 +3348,7 @@
   <dimension ref="A1:EB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="9">
         <v>12</v>
@@ -3349,13 +3367,13 @@
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8">
         <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -3380,13 +3398,13 @@
     </row>
     <row r="3" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -3417,7 +3435,7 @@
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
@@ -3488,14 +3506,14 @@
     </row>
     <row r="5" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="8">
         <v>3</v>
@@ -3527,14 +3545,14 @@
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8">
         <v>35</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="8">
         <v>7</v>
@@ -3574,14 +3592,14 @@
     </row>
     <row r="7" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="8">
         <v>15</v>
@@ -3621,13 +3639,13 @@
     </row>
     <row r="8" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8">
         <v>432</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8">
         <v>23</v>
@@ -3656,13 +3674,13 @@
     </row>
     <row r="9" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="8">
         <v>25</v>
@@ -3689,13 +3707,13 @@
     </row>
     <row r="10" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="8">
         <v>432</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="8">
         <v>26</v>
@@ -3732,13 +3750,13 @@
     </row>
     <row r="11" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="8">
         <v>32</v>
@@ -3769,7 +3787,7 @@
     </row>
     <row r="12" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
@@ -3777,13 +3795,13 @@
     </row>
     <row r="13" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="8">
         <v>122</v>
@@ -4172,13 +4190,13 @@
     </row>
     <row r="14" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="8">
         <v>116</v>
@@ -4455,7 +4473,7 @@
     </row>
     <row r="15" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
@@ -4463,7 +4481,7 @@
     </row>
     <row r="16" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="8">
         <v>3</v>
@@ -4471,7 +4489,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="8">
         <v>3</v>
@@ -4479,7 +4497,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="8">
         <v>4</v>
@@ -4487,7 +4505,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="8">
         <v>16</v>
@@ -4495,7 +4513,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="8">
         <v>8640</v>
@@ -4503,7 +4521,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -4511,22 +4529,22 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\MaSc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957C998-E2E3-4045-AC9A-71653D105164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD292ED-09A1-4A8C-BD18-6BB131E921C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24408" yWindow="-2412" windowWidth="21600" windowHeight="11388" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
     <sheet name="TrackVars" sheetId="3" r:id="rId2"/>
+    <sheet name="TrackConstants" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
   <si>
     <t>File</t>
   </si>
@@ -396,20 +397,158 @@
     <t>One possible thing to try if all else fails is to transpose the coordinate system of tkinter to be normal in case that messed me up somewhere</t>
   </si>
   <si>
-    <t>MAKE SURE THE ASSUMPTIONS IN 2019 TABLE 1 MATCH MY STUFF. Document any deviation</t>
-  </si>
-  <si>
     <t>Note: the airgap plot looks more correct at Div = 2 than Div = 15 which makes me think there is an error in the mec region</t>
   </si>
   <si>
-    <t>Something really interesting with the plot of the error of the conservation of flux equation after solving the linear system of equations is that when leaving mmf in an normal state I see max error e^-18 but if I purposfully introduce an error I still see  a really low error like e^-19. this means that an error in MMF early is not caught by this plot. Question is what is this plot used for</t>
+    <t>Np</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2p</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>Nt</t>
+  </si>
+  <si>
+    <t>Ls</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>ws</t>
+  </si>
+  <si>
+    <t>hs</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>hg</t>
+  </si>
+  <si>
+    <t>hAl</t>
+  </si>
+  <si>
+    <t>hbi</t>
+  </si>
+  <si>
+    <t>sAl</t>
+  </si>
+  <si>
+    <t>sFe</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>4.5*10^6</t>
+  </si>
+  <si>
+    <t>17*10^6</t>
+  </si>
+  <si>
+    <t>Sm^-1</t>
+  </si>
+  <si>
+    <t>Number of phases</t>
+  </si>
+  <si>
+    <t>Number of poles</t>
+  </si>
+  <si>
+    <t>Number of slots</t>
+  </si>
+  <si>
+    <t>Number of turns per coil</t>
+  </si>
+  <si>
+    <t>Stack width</t>
+  </si>
+  <si>
+    <t>Fundamental pitch of the primary</t>
+  </si>
+  <si>
+    <t>Primary tooth width</t>
+  </si>
+  <si>
+    <t>Primary slot width</t>
+  </si>
+  <si>
+    <t>Primary slot height</t>
+  </si>
+  <si>
+    <t>Primary yoke height</t>
+  </si>
+  <si>
+    <t>Air gap length</t>
+  </si>
+  <si>
+    <t>Thickness of the aluminum plate</t>
+  </si>
+  <si>
+    <t>Thickness of the back-iron plate</t>
+  </si>
+  <si>
+    <t>Conductivity of aluminum</t>
+  </si>
+  <si>
+    <t>Conductivity of iron</t>
+  </si>
+  <si>
+    <t>Relative permeability iron</t>
+  </si>
+  <si>
+    <t>Conductivity of airgap</t>
+  </si>
+  <si>
+    <t>3*10^-15</t>
+  </si>
+  <si>
+    <t>Conductivity of copper</t>
+  </si>
+  <si>
+    <t>5.96*10^6</t>
+  </si>
+  <si>
+    <t>Relative permeability aluminum</t>
+  </si>
+  <si>
+    <t>Relative permeability air</t>
+  </si>
+  <si>
+    <t>Relative permeability copper</t>
+  </si>
+  <si>
+    <t>Note: Green means I got the number from the paper, orange means I assumed it, red means there is a issue with the value in the paper.</t>
+  </si>
+  <si>
+    <t>Note: The assumptions I made I think can be explained. Conductivity of airgap was likely assumed to be 0, copper is not needed since it only occurs in the MEC region because sigma is only used in the lambda variable. All the permeabilities in other than iron were likely assumed to be 1.</t>
+  </si>
+  <si>
+    <t>One of the true inconsistencies is the MMF in the 2019 paper that didn’t exist in 2015 or 2018</t>
+  </si>
+  <si>
+    <t>Another great point about the MEC HM boundary is that I can always write a test script to check that my complex fourier series of the Bx_MEC is correct. I can do this by plotting the (Phi_xn + Phi_xp)/2urSyz for each K. Then plot the complex fourier series of this</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,8 +594,22 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +662,22 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -543,7 +712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -552,8 +721,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -596,14 +768,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="11">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
+    <cellStyle name="40% - Accent2" xfId="10" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="9" builtinId="33"/>
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1862,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3280,16 +3467,19 @@
     </row>
     <row r="58" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>66</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3312,14 +3502,12 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>111</v>
+    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>160</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -3348,7 +3536,7 @@
   <dimension ref="A1:EB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4550,4 +4738,321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470EA571-87DB-4BDA-819A-DD9B46927D19}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="16"/>
+    <col min="5" max="5" width="31.5703125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="17">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="17">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="17">
+        <v>16</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="17">
+        <v>57</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="17">
+        <v>50</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="19">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="17">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="17">
+        <v>20</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2.7</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="17">
+        <v>8</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\MaSc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD292ED-09A1-4A8C-BD18-6BB131E921C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDA2B8-7817-457B-8054-8569018F5F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -541,7 +541,7 @@
     <t>One of the true inconsistencies is the MMF in the 2019 paper that didn’t exist in 2015 or 2018</t>
   </si>
   <si>
-    <t>Another great point about the MEC HM boundary is that I can always write a test script to check that my complex fourier series of the Bx_MEC is correct. I can do this by plotting the (Phi_xn + Phi_xp)/2urSyz for each K. Then plot the complex fourier series of this</t>
+    <t>Something interesting is that when plotting the Bx field in the boundary I see the max/min at 0.035/-0.035 which is roughly the same as the aigrap B field plot (too low) then that tells me the issue is elsewhere not in the boundary equation but in the B field plot since it happened when changing mesh density in this test too!</t>
   </si>
 </sst>
 </file>
@@ -2049,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3502,7 +3502,7 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>160</v>
       </c>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDA2B8-7817-457B-8054-8569018F5F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB566F6-B504-4D03-834D-B04AD86E8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="465" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
   <si>
     <t>File</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>Something interesting is that when plotting the Bx field in the boundary I see the max/min at 0.035/-0.035 which is roughly the same as the aigrap B field plot (too low) then that tells me the issue is elsewhere not in the boundary equation but in the B field plot since it happened when changing mesh density in this test too!</t>
+  </si>
+  <si>
+    <t>An interesting thought is that with a low mesh density the f value will be constant for a much longer node length lx compared to a dense mesh. Although both plots have an area equal to 0, the course mesh has more error but the next ones are not converging to a point. We should plot the difference between them to see if there is a convergence</t>
   </si>
 </sst>
 </file>
@@ -3502,11 +3505,13 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB566F6-B504-4D03-834D-B04AD86E8783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664E63B-D875-4930-BEAE-E3EAA3A0D2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="360" windowWidth="21600" windowHeight="11385" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
   <si>
     <t>File</t>
   </si>
@@ -545,6 +545,21 @@
   </si>
   <si>
     <t>An interesting thought is that with a low mesh density the f value will be constant for a much longer node length lx compared to a dense mesh. Although both plots have an area equal to 0, the course mesh has more error but the next ones are not converging to a point. We should plot the difference between them to see if there is a convergence</t>
+  </si>
+  <si>
+    <t>If I find out that this is normal behaviour with the peaks of MMF dropping with finer mesh, then this tells me that the issue lies elsewhere and that I have to continue from the beginning</t>
+  </si>
+  <si>
+    <t>Worst case just send a message to the authors asking for more supplementary material. Send proof that Im actually far into solving it. Ask Solange for help</t>
+  </si>
+  <si>
+    <t>Try to upgrade my meshing to allow an input number of nodes in the x and y direction</t>
+  </si>
+  <si>
+    <t>Look into the Kc value for possibly being the entire coil span</t>
+  </si>
+  <si>
+    <t>What is weird is that the shape of each node makes a HUGE impact on the results. Look into if you need to keep the nodes in the x and y direction for a region the same? Ex) a coil needs to be square in terms of nodes in it</t>
   </si>
 </sst>
 </file>
@@ -2052,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,13 +3527,26 @@
       <c r="B62" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
+    <row r="64" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664E63B-D875-4930-BEAE-E3EAA3A0D2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB4C69-C655-4556-8965-8DF1715E45C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
     <sheet name="TrackVars" sheetId="3" r:id="rId2"/>
     <sheet name="TrackConstants" sheetId="4" r:id="rId3"/>
+    <sheet name="PlotCorrelation" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>File</t>
   </si>
@@ -560,6 +561,36 @@
   </si>
   <si>
     <t>What is weird is that the shape of each node makes a HUGE impact on the results. Look into if you need to keep the nodes in the x and y direction for a region the same? Ex) a coil needs to be square in terms of nodes in it</t>
+  </si>
+  <si>
+    <t>PixelDivs</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>Peak2Peak</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>ppSlotheight//2</t>
   </si>
 </sst>
 </file>
@@ -743,7 +774,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,6 +828,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1155,7 +1192,4531 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MMF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ppSlotheight//2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MMF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Reluctance vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5968310.3659460703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6366197.7236758098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10610329.539459599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9947183.9432434496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlotheight//2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Reluctance vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5968310.3659460703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6366197.7236758098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10610329.539459599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9947183.9432434496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>B Field vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>By</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlotheight//2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>B Field vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>By</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>PlotCorrelation!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PlotCorrelation!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1714,6 +6275,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1747,6 +9326,237 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123F8931-AE90-49E8-9AA9-131EE2E2FC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF3C751-95E7-418C-AC0A-E8213357A9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A7EB44-7F49-460F-95CD-67B37CF66ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F70FCA-C89E-4690-98B0-C01C4B7E6163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBF5A8B-6440-444B-BC15-7AD108F918DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E65ED6-8B5E-49A1-A6B0-FCF8A38349BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2067,7 +9877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -5088,4 +12898,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7A0CB-1887-4F0F-8F3A-7013480AD86F}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>C3/2</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H3">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I3">
+        <v>142.5</v>
+      </c>
+      <c r="J3">
+        <v>0.03</v>
+      </c>
+      <c r="K3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">C4/2</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H4">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I4">
+        <v>106.875</v>
+      </c>
+      <c r="J4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G5">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H5">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I5">
+        <v>79.167000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.01</v>
+      </c>
+      <c r="K5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G6">
+        <v>5968310.3659460703</v>
+      </c>
+      <c r="H6">
+        <v>10610329.539459599</v>
+      </c>
+      <c r="I6">
+        <v>59.375</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+      <c r="K6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H7">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I7">
+        <v>62.344000000000001</v>
+      </c>
+      <c r="J7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>6366197.7236758098</v>
+      </c>
+      <c r="H8">
+        <v>9947183.9432434496</v>
+      </c>
+      <c r="I8">
+        <v>49.875</v>
+      </c>
+      <c r="J8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8664E63B-D875-4930-BEAE-E3EAA3A0D2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC9E55-10AD-402E-846D-175D6D19D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
     <sheet name="TrackVars" sheetId="3" r:id="rId2"/>
     <sheet name="TrackConstants" sheetId="4" r:id="rId3"/>
+    <sheet name="PlotCorrelation" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
   <si>
     <t>File</t>
   </si>
@@ -560,6 +561,36 @@
   </si>
   <si>
     <t>What is weird is that the shape of each node makes a HUGE impact on the results. Look into if you need to keep the nodes in the x and y direction for a region the same? Ex) a coil needs to be square in terms of nodes in it</t>
+  </si>
+  <si>
+    <t>PixelDivs</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>ly</t>
+  </si>
+  <si>
+    <t>MMF</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+  <si>
+    <t>Ry</t>
+  </si>
+  <si>
+    <t>Peak2Peak</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>ppSlotheight//2</t>
   </si>
 </sst>
 </file>
@@ -743,7 +774,7 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,6 +828,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1155,7 +1192,4575 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MMF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$I$3:$I$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>79.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ppSlotheight//2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-932B-4114-A311-48B8D0774DC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MMF</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$I$3:$I$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>79.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.344000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE32-448D-B31C-E488B37BE1EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Reluctance vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$G$3:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5968310.3659460703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6366197.7236758098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$H$3:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10610329.539459599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9947183.9432434496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlotheight//2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD8D-48CF-BFB7-16BED1C92A2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Reluctance vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$G$3:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5968310.3659460703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6366197.7236758098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$H$3:$H$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10610329.539459599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7957747.1545947604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9947183.9432434496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4547-4DF4-90F4-499EA206F6EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>B Field vs. ppCoil</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$J$3:$J$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$J$5:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>By</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$K$3:$K$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ppSlotheight//2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-22B9-4E06-A37E-68F63C5599A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>B Field vs. Coil Pixel Lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$J$3:$J$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$J$5:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>By</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$K$3:$K$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$K$5:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633914632"/>
+        <c:axId val="633918568"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>lx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-67D6-4E03-AF70-843D3D08DEAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="633935296"/>
+        <c:axId val="633942184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="633914632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633918568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633918568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633914632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="633942184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633935296"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="633935296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="633942184"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1714,6 +6319,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1747,6 +9370,237 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123F8931-AE90-49E8-9AA9-131EE2E2FC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF3C751-95E7-418C-AC0A-E8213357A9EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A7EB44-7F49-460F-95CD-67B37CF66ACE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F70FCA-C89E-4690-98B0-C01C4B7E6163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBF5A8B-6440-444B-BC15-7AD108F918DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E65ED6-8B5E-49A1-A6B0-FCF8A38349BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2067,7 +9921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -5088,4 +12942,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7A0CB-1887-4F0F-8F3A-7013480AD86F}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>C3/2</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H3">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I3">
+        <v>142.5</v>
+      </c>
+      <c r="J3">
+        <v>0.03</v>
+      </c>
+      <c r="K3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="0">C4/2</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G4">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H4">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I4">
+        <v>106.875</v>
+      </c>
+      <c r="J4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G5">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H5">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I5">
+        <v>79.167000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.01</v>
+      </c>
+      <c r="K5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G6">
+        <v>5968310.3659460703</v>
+      </c>
+      <c r="H6">
+        <v>10610329.539459599</v>
+      </c>
+      <c r="I6">
+        <v>59.375</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+      <c r="K6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G7">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="H7">
+        <v>7957747.1545947604</v>
+      </c>
+      <c r="I7">
+        <v>62.344000000000001</v>
+      </c>
+      <c r="J7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <v>6366197.7236758098</v>
+      </c>
+      <c r="H8">
+        <v>9947183.9432434496</v>
+      </c>
+      <c r="I8">
+        <v>49.875</v>
+      </c>
+      <c r="J8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6B651-B849-438D-97E4-A95A116692B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E247D5-A693-4450-B391-784DA68983F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="27000" windowHeight="14235" activeTab="3" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="0" yWindow="1365" windowWidth="27000" windowHeight="14235" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
   <si>
     <t>File</t>
   </si>
@@ -260,12 +260,6 @@
   </si>
   <si>
     <t>If there is a * in the comment it means I have checked the method for different len(n) values and different mecRegionLengths</t>
-  </si>
-  <si>
-    <t>Note: What is interesting from the note on the left is that as I increase pixelDiv, the error seen in the linalg_lu solution is still very low and stays roughly constant meaning that linalg_lu is valid for all but the values being passed in may be garbage</t>
-  </si>
-  <si>
-    <t>Try different values for pixelDiv and write down all the expected values on the excel sheet like Y_bc and the indexes</t>
   </si>
   <si>
     <t>ppAirBuffer</t>
@@ -398,9 +392,6 @@
     <t>One possible thing to try if all else fails is to transpose the coordinate system of tkinter to be normal in case that messed me up somewhere</t>
   </si>
   <si>
-    <t>Note: the airgap plot looks more correct at Div = 2 than Div = 15 which makes me think there is an error in the mec region</t>
-  </si>
-  <si>
     <t>Np</t>
   </si>
   <si>
@@ -539,30 +530,6 @@
     <t>Note: The assumptions I made I think can be explained. Conductivity of airgap was likely assumed to be 0, copper is not needed since it only occurs in the MEC region because sigma is only used in the lambda variable. All the permeabilities in other than iron were likely assumed to be 1.</t>
   </si>
   <si>
-    <t>One of the true inconsistencies is the MMF in the 2019 paper that didn’t exist in 2015 or 2018</t>
-  </si>
-  <si>
-    <t>Something interesting is that when plotting the Bx field in the boundary I see the max/min at 0.035/-0.035 which is roughly the same as the aigrap B field plot (too low) then that tells me the issue is elsewhere not in the boundary equation but in the B field plot since it happened when changing mesh density in this test too!</t>
-  </si>
-  <si>
-    <t>An interesting thought is that with a low mesh density the f value will be constant for a much longer node length lx compared to a dense mesh. Although both plots have an area equal to 0, the course mesh has more error but the next ones are not converging to a point. We should plot the difference between them to see if there is a convergence</t>
-  </si>
-  <si>
-    <t>If I find out that this is normal behaviour with the peaks of MMF dropping with finer mesh, then this tells me that the issue lies elsewhere and that I have to continue from the beginning</t>
-  </si>
-  <si>
-    <t>Worst case just send a message to the authors asking for more supplementary material. Send proof that Im actually far into solving it. Ask Solange for help</t>
-  </si>
-  <si>
-    <t>Try to upgrade my meshing to allow an input number of nodes in the x and y direction</t>
-  </si>
-  <si>
-    <t>Look into the Kc value for possibly being the entire coil span</t>
-  </si>
-  <si>
-    <t>What is weird is that the shape of each node makes a HUGE impact on the results. Look into if you need to keep the nodes in the x and y direction for a region the same? Ex) a coil needs to be square in terms of nodes in it</t>
-  </si>
-  <si>
     <t>PixelDivs</t>
   </si>
   <si>
@@ -591,6 +558,9 @@
   </si>
   <si>
     <t>ppSlotheight//2</t>
+  </si>
+  <si>
+    <t>I can try to plot the results for different meshes again to see what the outcome is and how consistent the meshing and B field is</t>
   </si>
 </sst>
 </file>
@@ -9921,8 +9891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10315,7 +10285,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
@@ -10389,7 +10359,7 @@
         <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="str">
         <v>LIM_Compute</v>
@@ -10679,7 +10649,7 @@
         <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="7" t="str">
         <v>LIM_Compute</v>
@@ -11337,70 +11307,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>67</v>
+        <v>106</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>159</v>
-      </c>
+      <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>163</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="255" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>166</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
@@ -11434,7 +11381,7 @@
   <sheetData>
     <row r="1" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="9">
         <v>12</v>
@@ -11442,13 +11389,13 @@
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8">
         <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -11473,13 +11420,13 @@
     </row>
     <row r="3" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -11510,7 +11457,7 @@
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8">
         <v>6</v>
@@ -11581,14 +11528,14 @@
     </row>
     <row r="5" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="8">
         <v>3</v>
@@ -11620,14 +11567,14 @@
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8">
         <v>35</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="8">
         <v>7</v>
@@ -11667,14 +11614,14 @@
     </row>
     <row r="7" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8">
         <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" s="8">
         <v>15</v>
@@ -11714,13 +11661,13 @@
     </row>
     <row r="8" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8">
         <v>432</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="8">
         <v>23</v>
@@ -11749,13 +11696,13 @@
     </row>
     <row r="9" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="8">
         <v>25</v>
@@ -11782,13 +11729,13 @@
     </row>
     <row r="10" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8">
         <v>432</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="8">
         <v>26</v>
@@ -11825,13 +11772,13 @@
     </row>
     <row r="11" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="8">
         <v>32</v>
@@ -11862,7 +11809,7 @@
     </row>
     <row r="12" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="8">
         <v>8</v>
@@ -11870,13 +11817,13 @@
     </row>
     <row r="13" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="8">
         <v>122</v>
@@ -12265,13 +12212,13 @@
     </row>
     <row r="14" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="8">
         <v>116</v>
@@ -12548,7 +12495,7 @@
     </row>
     <row r="15" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="8">
         <v>4</v>
@@ -12556,7 +12503,7 @@
     </row>
     <row r="16" spans="1:132" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="8">
         <v>3</v>
@@ -12564,7 +12511,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8">
         <v>3</v>
@@ -12572,7 +12519,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="8">
         <v>4</v>
@@ -12580,7 +12527,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="8">
         <v>16</v>
@@ -12588,7 +12535,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B20" s="8">
         <v>8640</v>
@@ -12596,7 +12543,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -12604,22 +12551,22 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -12645,298 +12592,298 @@
   <sheetData>
     <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="19">
         <v>12</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C19" s="18">
         <v>1</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C20" s="18">
         <v>1</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" s="18">
         <v>1</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -12948,7 +12895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7A0CB-1887-4F0F-8F3A-7013480AD86F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -12978,43 +12925,43 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E247D5-A693-4450-B391-784DA68983F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0DFE47-3062-4710-827D-730C0378CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1365" windowWidth="27000" windowHeight="14235" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
   <si>
     <t>File</t>
   </si>
@@ -561,13 +561,49 @@
   </si>
   <si>
     <t>I can try to plot the results for different meshes again to see what the outcome is and how consistent the meshing and B field is</t>
+  </si>
+  <si>
+    <t>Important to know that when running the comparison of the Bx value at each node a very small amount of error was seen in pixelDiv = 10 and up meaning You should run at this for efficient computing</t>
+  </si>
+  <si>
+    <t>To validate my meshing I can mesh the coils into a local square mesh or a rectangle mesh. Then validate my new scaling method is correct visually</t>
+  </si>
+  <si>
+    <t>DO IT NOW: I NEED TO EMAIL DR KAR ABOUT THE ANSYS HELP, THE FASTER THE BETTER (DON’T BE A PUSSY)</t>
+  </si>
+  <si>
+    <t>This proves that the meshing is working well since the MMF and Reluctance in the top row flexes with changes to ppSlotheight:2ppSlot ratio. When you look at the first column of graphs you see B field barely changes to the flex so MMF and R counter</t>
+  </si>
+  <si>
+    <t>Primary Length</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Look at the picture for compareAirgap in the Troubleshooting folder</t>
+  </si>
+  <si>
+    <t>Complex Fourier Series does not change the magnitude. Of the input waveform. This means that the MMF waveform determines everything about the final waveform in the middle of the airgap. This includes MMF and crossover points</t>
+  </si>
+  <si>
+    <t>What if I need to account for mmf in the y direction as well in the flux equations, unlikely but worth a try</t>
+  </si>
+  <si>
+    <t>Plot the By plot at the Boundary</t>
+  </si>
+  <si>
+    <t>Check the Vect Pot around the upper 2 left coils</t>
+  </si>
+  <si>
+    <t>Why am I getting linalg error at pixelDiv = 5. This is a serious issue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,8 +663,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,12 +742,6 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -731,7 +776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -742,9 +787,8 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -793,26 +837,31 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
-    <cellStyle name="40% - Accent2" xfId="10" builtinId="35"/>
     <cellStyle name="Accent2" xfId="9" builtinId="33"/>
     <cellStyle name="Bad" xfId="7" builtinId="27"/>
     <cellStyle name="Good" xfId="8" builtinId="26"/>
@@ -1247,7 +1296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:f>PlotCorrelation!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1281,57 +1330,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$I$3:$I$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$I$4:$I$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$I$5:$I$8</c:f>
+              <c:f>PlotCorrelation!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.167000000000002</c:v>
+                  <c:v>249.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.375</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.344000000000001</c:v>
+                  <c:v>223.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.875</c:v>
+                  <c:v>267.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:f>PlotCorrelation!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1398,57 +1446,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$B$4:$B$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:f>PlotCorrelation!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,57 +1538,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$D$4:$D$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:f>PlotCorrelation!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,7 +1947,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$I$2</c:f>
+              <c:f>PlotCorrelation!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,57 +1981,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$I$3:$I$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$I$4:$I$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$I$5:$I$8</c:f>
+              <c:f>PlotCorrelation!$I$4:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>79.167000000000002</c:v>
+                  <c:v>249.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.375</c:v>
+                  <c:v>256.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.344000000000001</c:v>
+                  <c:v>223.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.875</c:v>
+                  <c:v>267.1875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:f>PlotCorrelation!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2052,57 +2097,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$E$4:$E$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:f>PlotCorrelation!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,57 +2189,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$F$4:$F$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:f>PlotCorrelation!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,7 +2594,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:f>PlotCorrelation!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2585,43 +2628,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$G$3:$G$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$G$4:$G$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$G$5:$G$8</c:f>
+              <c:f>PlotCorrelation!$G$4:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2629,13 +2671,13 @@
                   <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5968310.3659460703</c:v>
+                  <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6820926.1325097997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7957747.1545947604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6366197.7236758098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,7 +2694,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:f>PlotCorrelation!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2686,43 +2728,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$H$3:$H$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$H$4:$H$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$H$5:$H$8</c:f>
+              <c:f>PlotCorrelation!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2730,13 +2771,13 @@
                   <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10610329.539459599</c:v>
+                  <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9284038.3470272198</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7957747.1545947604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9947183.9432434496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2769,7 +2810,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:f>PlotCorrelation!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2803,57 +2844,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$B$4:$B$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:f>PlotCorrelation!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,7 +2910,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:f>PlotCorrelation!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2904,57 +2944,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$D$4:$D$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:f>PlotCorrelation!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,7 +3349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$G$2</c:f>
+              <c:f>PlotCorrelation!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3344,43 +3383,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$G$3:$G$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$G$4:$G$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$G$5:$G$8</c:f>
+              <c:f>PlotCorrelation!$G$4:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3388,13 +3426,13 @@
                   <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5968310.3659460703</c:v>
+                  <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6820926.1325097997</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7957747.1545947604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6366197.7236758098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3411,7 +3449,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$H$2</c:f>
+              <c:f>PlotCorrelation!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3445,43 +3483,42 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$H$3:$H$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$H$4:$H$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$H$5:$H$8</c:f>
+              <c:f>PlotCorrelation!$H$4:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3489,13 +3526,13 @@
                   <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10610329.539459599</c:v>
+                  <c:v>7957747.1545947604</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>9284038.3470272198</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7957747.1545947604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9947183.9432434496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3528,7 +3565,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:f>PlotCorrelation!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3562,57 +3599,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$E$4:$E$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:f>PlotCorrelation!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,57 +3691,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$F$4:$F$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:f>PlotCorrelation!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,7 +4096,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:f>PlotCorrelation!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4095,57 +4130,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$J$3:$J$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$J$4:$J$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$J$5:$J$8</c:f>
+              <c:f>PlotCorrelation!$J$4:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.0099999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4162,7 +4196,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:f>PlotCorrelation!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4196,57 +4230,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$K$3:$K$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$K$4:$K$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$K$5:$K$8</c:f>
+              <c:f>PlotCorrelation!$K$4:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.0499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,7 +4312,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$B$2</c:f>
+              <c:f>PlotCorrelation!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4313,57 +4346,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$B$3:$B$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$B$4:$B$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$B$5:$B$8</c:f>
+              <c:f>PlotCorrelation!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,7 +4412,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$D$2</c:f>
+              <c:f>PlotCorrelation!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4414,57 +4446,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$D$3:$D$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$D$4:$D$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$D$5:$D$8</c:f>
+              <c:f>PlotCorrelation!$D$4:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4820,7 +4851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$J$2</c:f>
+              <c:f>PlotCorrelation!$J$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4854,57 +4885,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$J$3:$J$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$J$4:$J$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$J$5:$J$8</c:f>
+              <c:f>PlotCorrelation!$J$4:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.0200000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
+                  <c:v>3.0099999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4921,7 +4951,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$K$2</c:f>
+              <c:f>PlotCorrelation!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4955,57 +4985,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$K$3:$K$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$K$4:$K$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$K$5:$K$8</c:f>
+              <c:f>PlotCorrelation!$K$4:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.0499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>-3.0700000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,7 +5067,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>PlotCorrelation!$E$2</c:f>
+              <c:f>PlotCorrelation!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5072,57 +5101,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$E$3:$E$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$E$4:$E$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$E$5:$E$8</c:f>
+              <c:f>PlotCorrelation!$E$4:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.4E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,57 +5193,56 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$A$3:$A$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$A$4:$A$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$A$5:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:f>PlotCorrelation!$A$4:$A$7</c:f>
+              <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>PlotCorrelation!$F$3:$F$8</c15:sqref>
+                    <c15:sqref>PlotCorrelation!$F$4:$F$9</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>PlotCorrelation!$F$5:$F$8</c:f>
+              <c:f>PlotCorrelation!$F$4:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.6999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9354,13 +9381,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9390,13 +9417,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9428,13 +9455,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9466,13 +9493,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9504,13 +9531,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9542,13 +9569,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9891,8 +9918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10381,7 +10408,7 @@
       <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="23">
         <v>100</v>
       </c>
       <c r="D20" s="3"/>
@@ -11325,29 +11352,47 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>166</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
@@ -12576,10 +12621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470EA571-87DB-4BDA-819A-DD9B46927D19}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12667,16 +12712,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>12</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12807,26 +12852,26 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12845,45 +12890,56 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>1</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12893,10 +12949,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE7A0CB-1887-4F0F-8F3A-7013480AD86F}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12904,121 +12960,103 @@
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>162</v>
-      </c>
+      <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>165</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>158</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>160</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>161</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>159</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>163</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f>C3/2</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0.01</v>
-      </c>
-      <c r="G3">
-        <v>7957747.1545947604</v>
-      </c>
-      <c r="H3">
-        <v>7957747.1545947604</v>
-      </c>
-      <c r="I3">
-        <v>142.5</v>
-      </c>
-      <c r="J3">
-        <v>0.03</v>
-      </c>
-      <c r="K3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f>C4/2</f>
         <v>4</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D8" si="0">C4/2</f>
-        <v>2</v>
-      </c>
       <c r="E4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="G4">
         <v>7957747.1545947604</v>
@@ -13027,34 +13065,34 @@
         <v>7957747.1545947604</v>
       </c>
       <c r="I4">
-        <v>106.875</v>
+        <v>249.375</v>
       </c>
       <c r="J4">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="D5:D7" si="0">C5/2</f>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>3.3E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F5">
-        <v>3.3E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G5">
         <v>7957747.1545947604</v>
@@ -13063,70 +13101,70 @@
         <v>7957747.1545947604</v>
       </c>
       <c r="I5">
-        <v>79.167000000000002</v>
+        <v>256.5</v>
       </c>
       <c r="J5">
-        <v>0.01</v>
+        <v>3.1E-2</v>
       </c>
       <c r="K5">
-        <v>1.4999999999999999E-2</v>
+        <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>2.5000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="F6">
-        <v>3.3E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="G6">
-        <v>5968310.3659460703</v>
+        <v>6820926.1325097997</v>
       </c>
       <c r="H6">
-        <v>10610329.539459599</v>
+        <v>9284038.3470272198</v>
       </c>
       <c r="I6">
-        <v>59.375</v>
+        <v>223.93</v>
       </c>
       <c r="J6">
-        <v>0.01</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="K6">
-        <v>1.4999999999999999E-2</v>
+        <v>-3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>2.5000000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="F7">
-        <v>2.5000000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="G7">
         <v>7957747.1545947604</v>
@@ -13135,56 +13173,47 @@
         <v>7957747.1545947604</v>
       </c>
       <c r="I7">
-        <v>62.344000000000001</v>
+        <v>267.1875</v>
       </c>
       <c r="J7">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="K7">
-        <v>1.4999999999999999E-2</v>
+        <v>-3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>2E-3</v>
-      </c>
-      <c r="F8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G8">
-        <v>6366197.7236758098</v>
-      </c>
-      <c r="H8">
-        <v>9947183.9432434496</v>
-      </c>
-      <c r="I8">
-        <v>49.875</v>
-      </c>
-      <c r="J8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="K8">
-        <v>1.4999999999999999E-2</v>
-      </c>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="5">
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A9:U9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0DFE47-3062-4710-827D-730C0378CC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC11BBF-A10D-4E45-99D7-5D899B6C92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
   <si>
     <t>File</t>
   </si>
@@ -596,7 +596,19 @@
     <t>Check the Vect Pot around the upper 2 left coils</t>
   </si>
   <si>
-    <t>Why am I getting linalg error at pixelDiv = 5. This is a serious issue</t>
+    <t>3) Look into other equations (hmMec)</t>
+  </si>
+  <si>
+    <t>2) Look at scalar potential after solving linalg near the coils and see where it tapers off using Show</t>
+  </si>
+  <si>
+    <t>4) Try to visualize the By BC between MEC and HM</t>
+  </si>
+  <si>
+    <t>I feel like there is contribution from the upper coil in the waveform but this contribution is minor compared to the right side lower coils. This could be due to the boundary condition Bx</t>
+  </si>
+  <si>
+    <t>Visually draw on the Bx matplots markers where the upper and lower coils start</t>
   </si>
 </sst>
 </file>
@@ -846,14 +858,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -9916,10 +9928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +10420,7 @@
       <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="21">
         <v>100</v>
       </c>
       <c r="D20" s="3"/>
@@ -11376,9 +11388,7 @@
       <c r="B62" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>178</v>
-      </c>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
@@ -11394,11 +11404,29 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
+    <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12970,38 +12998,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -13183,29 +13211,29 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC11BBF-A10D-4E45-99D7-5D899B6C92F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F2BE5E-E663-459C-8C96-E00D06AA007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="1155" yWindow="0" windowWidth="14730" windowHeight="15600" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="183">
   <si>
     <t>File</t>
   </si>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>Assuming my math is right</t>
-  </si>
-  <si>
-    <t>TODO for 2/Tper but I calculated 1/Tper. I still need to review my math with someone for the understanding of this boundary condition</t>
   </si>
   <si>
     <t>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</t>
@@ -581,9 +578,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Look at the picture for compareAirgap in the Troubleshooting folder</t>
-  </si>
-  <si>
     <t>Complex Fourier Series does not change the magnitude. Of the input waveform. This means that the MMF waveform determines everything about the final waveform in the middle of the airgap. This includes MMF and crossover points</t>
   </si>
   <si>
@@ -605,10 +599,23 @@
     <t>4) Try to visualize the By BC between MEC and HM</t>
   </si>
   <si>
-    <t>I feel like there is contribution from the upper coil in the waveform but this contribution is minor compared to the right side lower coils. This could be due to the boundary condition Bx</t>
-  </si>
-  <si>
     <t>Visually draw on the Bx matplots markers where the upper and lower coils start</t>
+  </si>
+  <si>
+    <t>1) The error could also be in the post-processing math as well</t>
+  </si>
+  <si>
+    <t>When increasing the MMF of only the top layer windings, I see no change in the result but when I do this for the lower level there is a change</t>
+  </si>
+  <si>
+    <t>I am confident the post processing code is correct after linalg
+The interesting thing is my magnitude is roughly correct now but the waveform is still really wrong
+Compared to the 2019 results, it looks almost like my waveform is mirrored in the x axis
+- This could be due to bad phase rotation or bad boundary conditions
+Today I checked and upgraded the mecHm equations to include all the MMF (this may still be wrong)
+I checked the MEC region equations last and was happy with that (cannot trust 100% though)
+What are the next steps?
+Plot Yk and check the vals for the left coils. Try this with different MMF cancelling</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1099,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5500</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,10 +1114,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5500</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9928,10 +9935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9987,13 +9994,13 @@
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>LimMotor</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H2" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -10011,13 +10018,13 @@
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>Error</v>
+        <v>updateGrid</v>
       </c>
       <c r="H3" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>
@@ -10038,7 +10045,7 @@
         <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>LimMotor</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -10062,7 +10069,7 @@
         <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>timing</v>
+        <v>Error</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -10085,16 +10092,16 @@
         <v>49</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>Grid</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H6" s="7">
         <v>100</v>
       </c>
-      <c r="I6" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+      <c r="I6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -10109,10 +10116,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>Node</v>
+        <v>timing</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -10136,13 +10143,13 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>Region</v>
+        <v>Grid</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
       </c>
-      <c r="I8" s="7">
-        <v>0</v>
+      <c r="I8" s="7" t="str">
+        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -10160,7 +10167,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>reluctance</v>
+        <v>Node</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -10184,7 +10191,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>Region</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -10208,7 +10215,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>reluctance</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -10232,7 +10239,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>buildGrid</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
@@ -10256,7 +10263,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -10280,7 +10287,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>buildGrid</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -10301,10 +10308,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>Model</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -10324,19 +10331,19 @@
         <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
       </c>
-      <c r="I16" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I16" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -10354,7 +10361,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>dirichlet</v>
+        <v>Model</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -10378,23 +10385,23 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>hmHm</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
+      <c r="I18" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="21">
         <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -10404,13 +10411,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>mecHm</v>
+        <v>dirichlet</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
       </c>
-      <c r="I19" s="7" t="str">
-        <v>TODO for 2/Tper but I calculated 1/Tper. I still need to review my math with someone for the understanding of this boundary condition</v>
+      <c r="I19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -10428,7 +10435,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>mec</v>
+        <v>hmHm</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -10452,13 +10459,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>mecHm</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
+      <c r="I21" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -10476,7 +10483,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>mec</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -10500,7 +10507,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -10524,7 +10531,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>preEqn8</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -10548,7 +10555,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>postEqn8</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -10572,7 +10579,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>postEqn9</v>
+        <v>preEqn8</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -10596,7 +10603,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>postEqn8</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -10620,7 +10627,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>postEqn9</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -10644,7 +10651,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>preEqn21</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -10668,7 +10675,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn21</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -10694,13 +10701,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>preEqn21</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
       </c>
-      <c r="I31" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I31" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -10718,7 +10725,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>postEqn21</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -10742,13 +10749,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
       </c>
-      <c r="I33" s="7">
-        <v>0</v>
+      <c r="I33" s="7" t="str">
+        <v>Assuming my math is right</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -10766,7 +10773,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H34" s="7">
         <v>100</v>
@@ -10790,7 +10797,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -10814,7 +10821,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H36" s="7">
         <v>100</v>
@@ -10838,7 +10845,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>updateLists</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H37" s="7">
         <v>100</v>
@@ -10862,7 +10869,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -10879,14 +10886,14 @@
         <v>54</v>
       </c>
       <c r="C39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>updateLists</v>
       </c>
       <c r="H39" s="7">
         <v>100</v>
@@ -10912,13 +10919,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>genForces</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H40" s="7">
         <v>100</v>
       </c>
-      <c r="I40" s="7" t="str">
-        <v>*</v>
+      <c r="I40" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10936,13 +10943,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>genForces</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
       </c>
-      <c r="I41" s="7">
-        <v>0</v>
+      <c r="I41" s="7" t="str">
+        <v>*</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10953,14 +10960,14 @@
         <v>52</v>
       </c>
       <c r="C42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D42" s="3"/>
       <c r="F42" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>updateGrid</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H42" s="7">
         <v>100</v>
@@ -11339,22 +11346,22 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>107</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>66</v>
@@ -11366,27 +11373,24 @@
     </row>
     <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="D60" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" s="15"/>
     </row>
@@ -11395,36 +11399,44 @@
     </row>
     <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="B66" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12665,306 +12677,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12999,7 +13011,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -13027,13 +13039,13 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -13042,28 +13054,28 @@
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
       <c r="J3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" t="s">
         <v>163</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -13212,7 +13224,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F2BE5E-E663-459C-8C96-E00D06AA007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358F2EC2-AB3D-45A5-9729-62647976CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="0" windowWidth="14730" windowHeight="15600" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -622,7 +622,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +695,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -807,7 +814,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -866,6 +873,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9937,25 +9947,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="7"/>
-    <col min="6" max="6" width="21.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.7109375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="7"/>
+    <col min="4" max="4" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="21.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.6640625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9981,7 +9991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -10006,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10030,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10054,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10078,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10104,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10128,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10152,7 +10162,7 @@
         <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10176,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -10200,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -10224,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -10248,7 +10258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10272,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -10296,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -10320,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -10346,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -10370,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -10394,7 +10404,7 @@
         <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -10420,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -10468,7 +10478,7 @@
         <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -10492,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -10516,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -10540,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
@@ -10564,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -10588,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
@@ -10612,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -10636,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -10660,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -10684,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -10710,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -10734,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -10758,7 +10768,7 @@
         <v>Assuming my math is right</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -10782,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -10806,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -10830,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
@@ -10854,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
@@ -10878,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
@@ -10902,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
@@ -10928,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
@@ -10952,7 +10962,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
@@ -10976,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -11002,7 +11012,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>7</v>
       </c>
@@ -11028,7 +11038,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
@@ -11054,7 +11064,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -11080,7 +11090,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
@@ -11106,7 +11116,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
@@ -11132,7 +11142,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
@@ -11158,7 +11168,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>7</v>
       </c>
@@ -11184,7 +11194,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
@@ -11210,7 +11220,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>8</v>
       </c>
@@ -11236,7 +11246,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>40</v>
       </c>
@@ -11262,7 +11272,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>40</v>
       </c>
@@ -11288,7 +11298,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>40</v>
       </c>
@@ -11314,7 +11324,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>40</v>
       </c>
@@ -11340,7 +11350,7 @@
         <v>*</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>45</v>
       </c>
@@ -11353,7 +11363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>108</v>
       </c>
@@ -11368,10 +11378,10 @@
       </c>
       <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>107</v>
       </c>
@@ -11385,19 +11395,20 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>172</v>
       </c>
+      <c r="B62" s="22"/>
       <c r="C62" s="15"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>174</v>
       </c>
@@ -11408,10 +11419,10 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>180</v>
       </c>
@@ -11422,12 +11433,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>181</v>
       </c>
@@ -11435,7 +11446,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>182</v>
       </c>
@@ -11458,13 +11469,13 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>95</v>
       </c>
@@ -11472,7 +11483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
@@ -11503,7 +11514,7 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>68</v>
       </c>
@@ -11540,7 +11551,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>69</v>
       </c>
@@ -11611,7 +11622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
@@ -11650,7 +11661,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>71</v>
       </c>
@@ -11697,7 +11708,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>72</v>
       </c>
@@ -11744,7 +11755,7 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
@@ -11779,7 +11790,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>74</v>
       </c>
@@ -11812,7 +11823,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
@@ -11855,7 +11866,7 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>76</v>
       </c>
@@ -11892,7 +11903,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>77</v>
       </c>
@@ -11900,7 +11911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>78</v>
       </c>
@@ -12295,7 +12306,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>79</v>
       </c>
@@ -12578,7 +12589,7 @@
       <c r="EA14" s="8"/>
       <c r="EB14" s="8"/>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>80</v>
       </c>
@@ -12586,7 +12597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>81</v>
       </c>
@@ -12594,7 +12605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
@@ -12602,7 +12613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
@@ -12610,7 +12621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -12618,7 +12629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>97</v>
       </c>
@@ -12626,7 +12637,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>98</v>
       </c>
@@ -12634,22 +12645,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>102</v>
       </c>
@@ -12667,15 +12678,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="16"/>
-    <col min="5" max="5" width="31.5703125" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" style="16"/>
+    <col min="5" max="5" width="31.5546875" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>130</v>
       </c>
@@ -12692,7 +12703,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>131</v>
       </c>
@@ -12709,7 +12720,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>132</v>
       </c>
@@ -12723,7 +12734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>133</v>
       </c>
@@ -12737,7 +12748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>134</v>
       </c>
@@ -12751,7 +12762,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>135</v>
       </c>
@@ -12765,7 +12776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>136</v>
       </c>
@@ -12779,7 +12790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>137</v>
       </c>
@@ -12793,7 +12804,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>138</v>
       </c>
@@ -12807,7 +12818,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>139</v>
       </c>
@@ -12821,7 +12832,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>140</v>
       </c>
@@ -12835,7 +12846,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>141</v>
       </c>
@@ -12849,7 +12860,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>142</v>
       </c>
@@ -12863,7 +12874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>143</v>
       </c>
@@ -12877,7 +12888,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>144</v>
       </c>
@@ -12891,7 +12902,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>146</v>
       </c>
@@ -12903,7 +12914,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>148</v>
       </c>
@@ -12915,7 +12926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>145</v>
       </c>
@@ -12929,7 +12940,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>150</v>
       </c>
@@ -12943,7 +12954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>151</v>
       </c>
@@ -12957,7 +12968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>152</v>
       </c>
@@ -12971,7 +12982,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>170</v>
       </c>
@@ -12995,55 +13006,55 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -13078,7 +13089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13114,7 +13125,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -13150,7 +13161,7 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -13186,7 +13197,7 @@
         <v>-3.0499999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -13222,30 +13233,30 @@
         <v>-3.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358F2EC2-AB3D-45A5-9729-62647976CEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01378AC1-15C9-4212-8612-FBB2569825C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-8508" yWindow="0" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
   <si>
     <t>File</t>
   </si>
@@ -256,12 +256,6 @@
     <t>visualizeMatrix</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>If there is a * in the comment it means I have checked the method for different len(n) values and different mecRegionLengths</t>
-  </si>
-  <si>
     <t>ppAirBuffer</t>
   </si>
   <si>
@@ -356,18 +350,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>I am happy with everythin up until model.finalizeCompute</t>
-  </si>
-  <si>
-    <t>Anything inside finalizeCompute needs to be checked in debugger</t>
-  </si>
-  <si>
-    <t>Things like MMF, ur, sigma, Iph are not captured in the checkSpatialMapping and could be validated through a field plot using LIM_Show</t>
   </si>
   <si>
     <t>Assuming my math is right</t>
@@ -588,15 +570,6 @@
   </si>
   <si>
     <t>Check the Vect Pot around the upper 2 left coils</t>
-  </si>
-  <si>
-    <t>3) Look into other equations (hmMec)</t>
-  </si>
-  <si>
-    <t>2) Look at scalar potential after solving linalg near the coils and see where it tapers off using Show</t>
-  </si>
-  <si>
-    <t>4) Try to visualize the By BC between MEC and HM</t>
   </si>
   <si>
     <t>Visually draw on the Bx matplots markers where the upper and lower coils start</t>
@@ -622,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,6 +673,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,7 +795,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,10 +853,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1109,10 +1093,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5300</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,10 +1108,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5300</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9945,10 +9929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10007,13 +9991,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>mecHm</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
-        <v>0</v>
+      <c r="I2" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -10031,7 +10015,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>updateGrid</v>
+        <v>preEqn8</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -10052,16 +10036,16 @@
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>LimMotor</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H4" s="7">
-        <v>100</v>
-      </c>
-      <c r="I4" s="7">
         <v>0</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <v>Assuming my math is right</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -10076,13 +10060,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>Error</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -10102,13 +10086,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -10126,13 +10110,13 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>timing</v>
+        <v>updateGrid</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -10150,16 +10134,16 @@
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>Grid</v>
+        <v>LimMotor</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
       </c>
-      <c r="I8" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+      <c r="I8" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -10174,10 +10158,10 @@
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>Node</v>
+        <v>Error</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -10198,10 +10182,10 @@
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>Region</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -10222,10 +10206,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>reluctance</v>
+        <v>timing</v>
       </c>
       <c r="H11" s="7">
         <v>100</v>
@@ -10249,13 +10233,13 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>Grid</v>
       </c>
       <c r="H12" s="7">
         <v>100</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
+      <c r="I12" s="7" t="str">
+        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -10273,7 +10257,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>Node</v>
       </c>
       <c r="H13" s="7">
         <v>100</v>
@@ -10297,7 +10281,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>buildGrid</v>
+        <v>Region</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
@@ -10321,7 +10305,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>reluctance</v>
       </c>
       <c r="H15" s="7">
         <v>100</v>
@@ -10341,13 +10325,13 @@
         <v>100</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -10363,15 +10347,15 @@
       <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="23">
         <v>100</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>Model</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -10380,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -10392,16 +10376,16 @@
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>buildGrid</v>
       </c>
       <c r="H18" s="7">
         <v>100</v>
       </c>
-      <c r="I18" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I18" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -10411,17 +10395,17 @@
       <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="21">
-        <v>100</v>
+      <c r="C19" s="23">
+        <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>dirichlet</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -10437,15 +10421,15 @@
       <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="23">
         <v>100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>hmHm</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H20" s="7">
         <v>100</v>
@@ -10461,7 +10445,7 @@
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="23">
         <v>100</v>
       </c>
       <c r="D21" s="3"/>
@@ -10469,13 +10453,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>mecHm</v>
+        <v>Model</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
       </c>
-      <c r="I21" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I21" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -10485,7 +10469,7 @@
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="23">
         <v>100</v>
       </c>
       <c r="D22" s="3"/>
@@ -10493,13 +10477,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>mec</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
+      <c r="I22" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10509,7 +10493,7 @@
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="23">
         <v>100</v>
       </c>
       <c r="D23" s="3"/>
@@ -10517,7 +10501,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>dirichlet</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -10534,14 +10518,14 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>hmHm</v>
       </c>
       <c r="H24" s="7">
         <v>100</v>
@@ -10557,7 +10541,7 @@
       <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="23">
         <v>100</v>
       </c>
       <c r="D25" s="3"/>
@@ -10565,7 +10549,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>mec</v>
       </c>
       <c r="H25" s="7">
         <v>100</v>
@@ -10581,7 +10565,7 @@
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="23">
         <v>100</v>
       </c>
       <c r="D26" s="3"/>
@@ -10589,7 +10573,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>preEqn8</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -10605,7 +10589,7 @@
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="23">
         <v>100</v>
       </c>
       <c r="D27" s="3"/>
@@ -10613,7 +10597,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>postEqn8</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -10629,7 +10613,7 @@
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="23">
         <v>100</v>
       </c>
       <c r="D28" s="3"/>
@@ -10637,7 +10621,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H28" s="7">
         <v>100</v>
@@ -10661,7 +10645,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>postEqn8</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -10685,7 +10669,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>postEqn9</v>
       </c>
       <c r="H30" s="7">
         <v>100</v>
@@ -10702,16 +10686,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F31" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>preEqn21</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H31" s="7">
         <v>100</v>
@@ -10735,7 +10719,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>postEqn21</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H32" s="7">
         <v>100</v>
@@ -10759,13 +10743,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>preEqn21</v>
       </c>
       <c r="H33" s="7">
         <v>100</v>
       </c>
-      <c r="I33" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I33" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -10783,7 +10767,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>postEqn21</v>
       </c>
       <c r="H34" s="7">
         <v>100</v>
@@ -10807,7 +10791,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -10824,14 +10808,14 @@
         <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H36" s="7">
         <v>100</v>
@@ -10855,7 +10839,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H37" s="7">
         <v>100</v>
@@ -10879,7 +10863,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H38" s="7">
         <v>100</v>
@@ -10922,9 +10906,7 @@
       <c r="C40" s="3">
         <v>100</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
@@ -10958,8 +10940,8 @@
       <c r="H41" s="7">
         <v>100</v>
       </c>
-      <c r="I41" s="7" t="str">
-        <v>*</v>
+      <c r="I41" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -10996,9 +10978,7 @@
       <c r="C43" s="4">
         <v>100</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11008,8 +10988,8 @@
       <c r="H43" s="7">
         <v>100</v>
       </c>
-      <c r="I43" s="7" t="str">
-        <v>*</v>
+      <c r="I43" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -11022,9 +11002,7 @@
       <c r="C44" s="4">
         <v>100</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11034,8 +11012,8 @@
       <c r="H44" s="7">
         <v>100</v>
       </c>
-      <c r="I44" s="7" t="str">
-        <v>*</v>
+      <c r="I44" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -11048,9 +11026,7 @@
       <c r="C45" s="4">
         <v>100</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11060,8 +11036,8 @@
       <c r="H45" s="7">
         <v>100</v>
       </c>
-      <c r="I45" s="7" t="str">
-        <v>*</v>
+      <c r="I45" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -11074,9 +11050,7 @@
       <c r="C46" s="4">
         <v>100</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11086,8 +11060,8 @@
       <c r="H46" s="7">
         <v>100</v>
       </c>
-      <c r="I46" s="7" t="str">
-        <v>*</v>
+      <c r="I46" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11100,9 +11074,7 @@
       <c r="C47" s="4">
         <v>100</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11112,8 +11084,8 @@
       <c r="H47" s="7">
         <v>100</v>
       </c>
-      <c r="I47" s="7" t="str">
-        <v>*</v>
+      <c r="I47" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -11126,9 +11098,7 @@
       <c r="C48" s="4">
         <v>100</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11138,8 +11108,8 @@
       <c r="H48" s="7">
         <v>100</v>
       </c>
-      <c r="I48" s="7" t="str">
-        <v>*</v>
+      <c r="I48" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -11152,9 +11122,7 @@
       <c r="C49" s="4">
         <v>100</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11164,8 +11132,8 @@
       <c r="H49" s="7">
         <v>100</v>
       </c>
-      <c r="I49" s="7" t="str">
-        <v>*</v>
+      <c r="I49" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -11178,9 +11146,7 @@
       <c r="C50" s="4">
         <v>100</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
         <v>LIM_Show</v>
       </c>
@@ -11190,8 +11156,8 @@
       <c r="H50" s="7">
         <v>100</v>
       </c>
-      <c r="I50" s="7" t="str">
-        <v>*</v>
+      <c r="I50" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -11204,9 +11170,7 @@
       <c r="C51" s="5">
         <v>100</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
         <v>LIM_ShowFromJSON</v>
       </c>
@@ -11216,8 +11180,8 @@
       <c r="H51" s="7">
         <v>100</v>
       </c>
-      <c r="I51" s="7" t="str">
-        <v>*</v>
+      <c r="I51" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -11230,9 +11194,7 @@
       <c r="C52" s="5">
         <v>100</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="D52" s="5"/>
       <c r="F52" s="7" t="str">
         <v>LIM_ShowFromJSON</v>
       </c>
@@ -11242,8 +11204,8 @@
       <c r="H52" s="7">
         <v>100</v>
       </c>
-      <c r="I52" s="7" t="str">
-        <v>*</v>
+      <c r="I52" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -11256,9 +11218,7 @@
       <c r="C53" s="6">
         <v>100</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
         <v>Platypus</v>
       </c>
@@ -11268,8 +11228,8 @@
       <c r="H53" s="7">
         <v>100</v>
       </c>
-      <c r="I53" s="7" t="str">
-        <v>*</v>
+      <c r="I53" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -11282,9 +11242,7 @@
       <c r="C54" s="6">
         <v>100</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
         <v>Platypus</v>
       </c>
@@ -11294,8 +11252,8 @@
       <c r="H54" s="7">
         <v>100</v>
       </c>
-      <c r="I54" s="7" t="str">
-        <v>*</v>
+      <c r="I54" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -11308,9 +11266,7 @@
       <c r="C55" s="6">
         <v>100</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D55" s="6"/>
       <c r="F55" s="7" t="str">
         <v>Platypus</v>
       </c>
@@ -11320,8 +11276,8 @@
       <c r="H55" s="7">
         <v>100</v>
       </c>
-      <c r="I55" s="7" t="str">
-        <v>*</v>
+      <c r="I55" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -11334,9 +11290,7 @@
       <c r="C56" s="6">
         <v>100</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="D56" s="6"/>
       <c r="F56" s="7" t="str">
         <v>Platypus</v>
       </c>
@@ -11346,8 +11300,8 @@
       <c r="H56" s="7">
         <v>100</v>
       </c>
-      <c r="I56" s="7" t="str">
-        <v>*</v>
+      <c r="I56" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -11356,25 +11310,22 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E58" s="15"/>
     </row>
@@ -11383,16 +11334,16 @@
     </row>
     <row r="60" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -11400,9 +11351,9 @@
     </row>
     <row r="62" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B62" s="22"/>
+        <v>166</v>
+      </c>
+      <c r="B62" s="21"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -11410,46 +11361,34 @@
     </row>
     <row r="64" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>182</v>
-      </c>
+    <row r="68" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11463,10 +11402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB53FA3-97E7-4737-912B-B0A83665D811}">
-  <dimension ref="A1:EB26"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11475,23 +11414,23 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="8">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -11514,25 +11453,21 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -11551,100 +11486,72 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="H4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="J4" s="8">
         <v>6</v>
       </c>
-      <c r="I4" s="8">
+      <c r="K4" s="8">
         <v>7</v>
       </c>
-      <c r="J4" s="8">
+      <c r="L4" s="8">
         <v>8</v>
       </c>
-      <c r="K4" s="8">
-        <v>9</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10</v>
-      </c>
-      <c r="M4" s="8">
-        <v>11</v>
-      </c>
-      <c r="N4" s="8">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8">
-        <v>13</v>
-      </c>
-      <c r="P4" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8">
-        <v>16</v>
-      </c>
-      <c r="S4" s="8">
-        <v>17</v>
-      </c>
-      <c r="T4" s="8">
-        <v>18</v>
-      </c>
-      <c r="U4" s="8">
-        <v>19</v>
-      </c>
-      <c r="V4" s="8">
-        <v>20</v>
-      </c>
-      <c r="W4" s="8">
-        <v>21</v>
-      </c>
-      <c r="X4" s="8">
-        <v>22</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>91</v>
+      <c r="D5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
       </c>
       <c r="F5" s="8">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -11661,41 +11568,31 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="8">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>92</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3</v>
       </c>
       <c r="F6" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8">
-        <v>8</v>
-      </c>
-      <c r="H6" s="8">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8">
-        <v>10</v>
-      </c>
-      <c r="J6" s="8">
-        <v>11</v>
-      </c>
-      <c r="K6" s="8">
-        <v>12</v>
-      </c>
-      <c r="L6" s="8">
-        <v>13</v>
-      </c>
-      <c r="M6" s="8">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -11708,41 +11605,31 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="8">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
       </c>
       <c r="F7" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G7" s="8">
-        <v>16</v>
-      </c>
-      <c r="H7" s="8">
-        <v>17</v>
-      </c>
-      <c r="I7" s="8">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8">
-        <v>19</v>
-      </c>
-      <c r="K7" s="8">
-        <v>20</v>
-      </c>
-      <c r="L7" s="8">
-        <v>21</v>
-      </c>
-      <c r="M7" s="8">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -11755,22 +11642,20 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="8">
-        <v>432</v>
+        <v>164</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E8" s="8">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -11790,18 +11675,18 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -11823,34 +11708,26 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8">
-        <v>432</v>
+        <v>164</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="8">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8">
-        <v>27</v>
-      </c>
-      <c r="G10" s="8">
-        <v>28</v>
-      </c>
-      <c r="H10" s="8">
-        <v>29</v>
-      </c>
-      <c r="I10" s="8">
-        <v>30</v>
-      </c>
-      <c r="J10" s="8">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -11866,25 +11743,21 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" s="8">
-        <v>32</v>
-      </c>
-      <c r="F11" s="8">
-        <v>33</v>
-      </c>
-      <c r="G11" s="8">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -11903,727 +11776,335 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="8">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45</v>
+      </c>
+      <c r="H13" s="8">
+        <v>48</v>
+      </c>
+      <c r="I13" s="8">
+        <v>49</v>
+      </c>
+      <c r="J13" s="8">
+        <v>50</v>
+      </c>
+      <c r="K13" s="8">
+        <v>53</v>
+      </c>
+      <c r="L13" s="8">
+        <v>54</v>
+      </c>
+      <c r="M13" s="8">
+        <v>55</v>
+      </c>
+      <c r="N13" s="8">
+        <v>58</v>
+      </c>
+      <c r="O13" s="8">
+        <v>59</v>
+      </c>
+      <c r="P13" s="8">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>63</v>
+      </c>
+      <c r="R13" s="8">
+        <v>64</v>
+      </c>
+      <c r="S13" s="8">
+        <v>65</v>
+      </c>
+      <c r="T13" s="8">
+        <v>68</v>
+      </c>
+      <c r="U13" s="8">
+        <v>69</v>
+      </c>
+      <c r="V13" s="8">
+        <v>70</v>
+      </c>
+      <c r="W13" s="8">
+        <v>73</v>
+      </c>
+      <c r="X13" s="8">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="8">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="8">
+        <v>79</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>80</v>
+      </c>
+      <c r="AC13" s="8">
+        <v>83</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>85</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>88</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>89</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>90</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>93</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>94</v>
+      </c>
+      <c r="AK13" s="8">
+        <v>95</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>98</v>
+      </c>
+      <c r="AM13" s="8">
+        <v>99</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>100</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>103</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>104</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>105</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>108</v>
+      </c>
+      <c r="AS13" s="8">
+        <v>109</v>
+      </c>
+      <c r="AT13" s="8">
+        <v>110</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>113</v>
+      </c>
+      <c r="AV13" s="8">
+        <v>114</v>
+      </c>
+      <c r="AW13" s="8">
+        <v>115</v>
+      </c>
+      <c r="AX13" s="8">
+        <v>118</v>
+      </c>
+      <c r="AY13" s="8">
+        <v>119</v>
+      </c>
+      <c r="AZ13" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="8">
-        <v>8</v>
-      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="8">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8">
+        <v>41</v>
+      </c>
+      <c r="G14" s="8">
+        <v>42</v>
+      </c>
+      <c r="H14" s="8">
+        <v>46</v>
+      </c>
+      <c r="I14" s="8">
+        <v>47</v>
+      </c>
+      <c r="J14" s="8">
+        <v>51</v>
+      </c>
+      <c r="K14" s="8">
+        <v>52</v>
+      </c>
+      <c r="L14" s="8">
+        <v>56</v>
+      </c>
+      <c r="M14" s="8">
+        <v>57</v>
+      </c>
+      <c r="N14" s="8">
+        <v>61</v>
+      </c>
+      <c r="O14" s="8">
+        <v>62</v>
+      </c>
+      <c r="P14" s="8">
+        <v>66</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>67</v>
+      </c>
+      <c r="R14" s="8">
+        <v>71</v>
+      </c>
+      <c r="S14" s="8">
+        <v>72</v>
+      </c>
+      <c r="T14" s="8">
+        <v>76</v>
+      </c>
+      <c r="U14" s="8">
+        <v>77</v>
+      </c>
+      <c r="V14" s="8">
+        <v>81</v>
+      </c>
+      <c r="W14" s="8">
+        <v>82</v>
+      </c>
+      <c r="X14" s="8">
+        <v>86</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>91</v>
+      </c>
+      <c r="AA14" s="8">
+        <v>92</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>97</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>101</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>102</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>106</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>107</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>111</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>112</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>116</v>
+      </c>
+      <c r="AK14" s="8">
+        <v>117</v>
+      </c>
+      <c r="AL14" s="8">
+        <v>121</v>
+      </c>
+      <c r="AM14" s="8">
+        <v>122</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>123</v>
+      </c>
+      <c r="AO14" s="8"/>
+      <c r="AP14" s="8"/>
+      <c r="AQ14" s="8"/>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="8">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="8">
-        <v>122</v>
-      </c>
-      <c r="F13" s="8">
-        <v>123</v>
-      </c>
-      <c r="G13" s="8">
-        <v>124</v>
-      </c>
-      <c r="H13" s="8">
-        <v>125</v>
-      </c>
-      <c r="I13" s="8">
-        <v>126</v>
-      </c>
-      <c r="J13" s="8">
-        <v>127</v>
-      </c>
-      <c r="K13" s="8">
-        <v>128</v>
-      </c>
-      <c r="L13" s="8">
-        <v>129</v>
-      </c>
-      <c r="M13" s="8">
-        <v>134</v>
-      </c>
-      <c r="N13" s="8">
-        <v>135</v>
-      </c>
-      <c r="O13" s="8">
-        <v>136</v>
-      </c>
-      <c r="P13" s="8">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>138</v>
-      </c>
-      <c r="R13" s="8">
-        <v>139</v>
-      </c>
-      <c r="S13" s="8">
-        <v>140</v>
-      </c>
-      <c r="T13" s="8">
-        <v>141</v>
-      </c>
-      <c r="U13" s="8">
-        <v>146</v>
-      </c>
-      <c r="V13" s="8">
-        <v>147</v>
-      </c>
-      <c r="W13" s="8">
-        <v>148</v>
-      </c>
-      <c r="X13" s="8">
-        <v>149</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>150</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>151</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>152</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>153</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>158</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>159</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>160</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>161</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>162</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>163</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>164</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>165</v>
-      </c>
-      <c r="AK13" s="8">
-        <v>170</v>
-      </c>
-      <c r="AL13" s="8">
-        <v>171</v>
-      </c>
-      <c r="AM13" s="8">
-        <v>172</v>
-      </c>
-      <c r="AN13" s="8">
-        <v>173</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>174</v>
-      </c>
-      <c r="AP13" s="8">
-        <v>175</v>
-      </c>
-      <c r="AQ13" s="8">
-        <v>176</v>
-      </c>
-      <c r="AR13" s="8">
-        <v>177</v>
-      </c>
-      <c r="AS13" s="8">
-        <v>182</v>
-      </c>
-      <c r="AT13" s="8">
-        <v>183</v>
-      </c>
-      <c r="AU13" s="8">
-        <v>184</v>
-      </c>
-      <c r="AV13" s="8">
-        <v>185</v>
-      </c>
-      <c r="AW13" s="8">
-        <v>186</v>
-      </c>
-      <c r="AX13" s="8">
-        <v>187</v>
-      </c>
-      <c r="AY13" s="8">
-        <v>188</v>
-      </c>
-      <c r="AZ13" s="8">
-        <v>189</v>
-      </c>
-      <c r="BA13" s="8">
-        <v>194</v>
-      </c>
-      <c r="BB13" s="8">
-        <v>195</v>
-      </c>
-      <c r="BC13" s="8">
-        <v>196</v>
-      </c>
-      <c r="BD13" s="8">
-        <v>197</v>
-      </c>
-      <c r="BE13" s="8">
-        <v>198</v>
-      </c>
-      <c r="BF13" s="8">
-        <v>199</v>
-      </c>
-      <c r="BG13" s="8">
-        <v>200</v>
-      </c>
-      <c r="BH13" s="8">
-        <v>201</v>
-      </c>
-      <c r="BI13" s="8">
-        <v>206</v>
-      </c>
-      <c r="BJ13" s="8">
-        <v>207</v>
-      </c>
-      <c r="BK13" s="8">
-        <v>208</v>
-      </c>
-      <c r="BL13" s="8">
-        <v>209</v>
-      </c>
-      <c r="BM13" s="8">
-        <v>210</v>
-      </c>
-      <c r="BN13" s="8">
-        <v>211</v>
-      </c>
-      <c r="BO13" s="8">
-        <v>212</v>
-      </c>
-      <c r="BP13" s="8">
-        <v>213</v>
-      </c>
-      <c r="BQ13" s="8">
-        <v>218</v>
-      </c>
-      <c r="BR13" s="8">
-        <v>219</v>
-      </c>
-      <c r="BS13" s="8">
-        <v>220</v>
-      </c>
-      <c r="BT13" s="8">
-        <v>221</v>
-      </c>
-      <c r="BU13" s="8">
-        <v>222</v>
-      </c>
-      <c r="BV13" s="8">
-        <v>223</v>
-      </c>
-      <c r="BW13" s="8">
-        <v>224</v>
-      </c>
-      <c r="BX13" s="8">
-        <v>225</v>
-      </c>
-      <c r="BY13" s="8">
-        <v>230</v>
-      </c>
-      <c r="BZ13" s="8">
-        <v>231</v>
-      </c>
-      <c r="CA13" s="8">
-        <v>232</v>
-      </c>
-      <c r="CB13" s="8">
-        <v>233</v>
-      </c>
-      <c r="CC13" s="8">
-        <v>234</v>
-      </c>
-      <c r="CD13" s="8">
-        <v>235</v>
-      </c>
-      <c r="CE13" s="8">
-        <v>236</v>
-      </c>
-      <c r="CF13" s="8">
-        <v>237</v>
-      </c>
-      <c r="CG13" s="8">
-        <v>242</v>
-      </c>
-      <c r="CH13" s="8">
-        <v>243</v>
-      </c>
-      <c r="CI13" s="8">
-        <v>244</v>
-      </c>
-      <c r="CJ13" s="8">
-        <v>245</v>
-      </c>
-      <c r="CK13" s="8">
-        <v>246</v>
-      </c>
-      <c r="CL13" s="8">
-        <v>247</v>
-      </c>
-      <c r="CM13" s="8">
-        <v>248</v>
-      </c>
-      <c r="CN13" s="8">
-        <v>249</v>
-      </c>
-      <c r="CO13" s="8">
-        <v>254</v>
-      </c>
-      <c r="CP13" s="8">
-        <v>255</v>
-      </c>
-      <c r="CQ13" s="8">
-        <v>256</v>
-      </c>
-      <c r="CR13" s="8">
-        <v>257</v>
-      </c>
-      <c r="CS13" s="8">
-        <v>258</v>
-      </c>
-      <c r="CT13" s="8">
-        <v>259</v>
-      </c>
-      <c r="CU13" s="8">
-        <v>260</v>
-      </c>
-      <c r="CV13" s="8">
-        <v>261</v>
-      </c>
-      <c r="CW13" s="8">
-        <v>266</v>
-      </c>
-      <c r="CX13" s="8">
-        <v>267</v>
-      </c>
-      <c r="CY13" s="8">
-        <v>268</v>
-      </c>
-      <c r="CZ13" s="8">
-        <v>269</v>
-      </c>
-      <c r="DA13" s="8">
-        <v>270</v>
-      </c>
-      <c r="DB13" s="8">
-        <v>271</v>
-      </c>
-      <c r="DC13" s="8">
-        <v>272</v>
-      </c>
-      <c r="DD13" s="8">
-        <v>273</v>
-      </c>
-      <c r="DE13" s="8">
-        <v>278</v>
-      </c>
-      <c r="DF13" s="8">
-        <v>279</v>
-      </c>
-      <c r="DG13" s="8">
-        <v>280</v>
-      </c>
-      <c r="DH13" s="8">
-        <v>281</v>
-      </c>
-      <c r="DI13" s="8">
-        <v>282</v>
-      </c>
-      <c r="DJ13" s="8">
-        <v>283</v>
-      </c>
-      <c r="DK13" s="8">
-        <v>284</v>
-      </c>
-      <c r="DL13" s="8">
-        <v>285</v>
-      </c>
-      <c r="DM13" s="8">
-        <v>290</v>
-      </c>
-      <c r="DN13" s="8">
-        <v>291</v>
-      </c>
-      <c r="DO13" s="8">
-        <v>292</v>
-      </c>
-      <c r="DP13" s="8">
-        <v>293</v>
-      </c>
-      <c r="DQ13" s="8">
-        <v>294</v>
-      </c>
-      <c r="DR13" s="8">
-        <v>295</v>
-      </c>
-      <c r="DS13" s="8">
-        <v>296</v>
-      </c>
-      <c r="DT13" s="8">
-        <v>297</v>
-      </c>
-      <c r="DU13" s="8">
-        <v>302</v>
-      </c>
-      <c r="DV13" s="8">
-        <v>303</v>
-      </c>
-      <c r="DW13" s="8">
-        <v>304</v>
-      </c>
-      <c r="DX13" s="8">
-        <v>305</v>
-      </c>
-      <c r="DY13" s="8">
-        <v>306</v>
-      </c>
-      <c r="DZ13" s="8">
-        <v>307</v>
-      </c>
-      <c r="EA13" s="8">
-        <v>308</v>
-      </c>
-      <c r="EB13" s="8">
-        <v>309</v>
+      <c r="B15" s="8">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="8">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="8">
-        <v>116</v>
-      </c>
-      <c r="F14" s="8">
-        <v>117</v>
-      </c>
-      <c r="G14" s="8">
-        <v>118</v>
-      </c>
-      <c r="H14" s="8">
-        <v>119</v>
-      </c>
-      <c r="I14" s="8">
-        <v>120</v>
-      </c>
-      <c r="J14" s="8">
-        <v>121</v>
-      </c>
-      <c r="K14" s="8">
-        <v>130</v>
-      </c>
-      <c r="L14" s="8">
-        <v>131</v>
-      </c>
-      <c r="M14" s="8">
-        <v>132</v>
-      </c>
-      <c r="N14" s="8">
-        <v>133</v>
-      </c>
-      <c r="O14" s="8">
-        <v>142</v>
-      </c>
-      <c r="P14" s="8">
-        <v>143</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>144</v>
-      </c>
-      <c r="R14" s="8">
-        <v>145</v>
-      </c>
-      <c r="S14" s="8">
-        <v>154</v>
-      </c>
-      <c r="T14" s="8">
-        <v>155</v>
-      </c>
-      <c r="U14" s="8">
-        <v>156</v>
-      </c>
-      <c r="V14" s="8">
-        <v>157</v>
-      </c>
-      <c r="W14" s="8">
-        <v>166</v>
-      </c>
-      <c r="X14" s="8">
-        <v>167</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>168</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>169</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>178</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>179</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>180</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>181</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>190</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>191</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>192</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>193</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>202</v>
-      </c>
-      <c r="AJ14" s="8">
-        <v>203</v>
-      </c>
-      <c r="AK14" s="8">
-        <v>204</v>
-      </c>
-      <c r="AL14" s="8">
-        <v>205</v>
-      </c>
-      <c r="AM14" s="8">
-        <v>214</v>
-      </c>
-      <c r="AN14" s="8">
-        <v>215</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>216</v>
-      </c>
-      <c r="AP14" s="8">
-        <v>217</v>
-      </c>
-      <c r="AQ14" s="8">
-        <v>226</v>
-      </c>
-      <c r="AR14" s="8">
-        <v>227</v>
-      </c>
-      <c r="AS14" s="8">
-        <v>228</v>
-      </c>
-      <c r="AT14" s="8">
-        <v>229</v>
-      </c>
-      <c r="AU14" s="8">
-        <v>238</v>
-      </c>
-      <c r="AV14" s="8">
-        <v>239</v>
-      </c>
-      <c r="AW14" s="8">
-        <v>240</v>
-      </c>
-      <c r="AX14" s="8">
-        <v>241</v>
-      </c>
-      <c r="AY14" s="8">
-        <v>250</v>
-      </c>
-      <c r="AZ14" s="8">
-        <v>251</v>
-      </c>
-      <c r="BA14" s="8">
-        <v>252</v>
-      </c>
-      <c r="BB14" s="8">
-        <v>253</v>
-      </c>
-      <c r="BC14" s="8">
-        <v>262</v>
-      </c>
-      <c r="BD14" s="8">
-        <v>263</v>
-      </c>
-      <c r="BE14" s="8">
-        <v>264</v>
-      </c>
-      <c r="BF14" s="8">
-        <v>265</v>
-      </c>
-      <c r="BG14" s="8">
-        <v>274</v>
-      </c>
-      <c r="BH14" s="8">
-        <v>275</v>
-      </c>
-      <c r="BI14" s="8">
-        <v>276</v>
-      </c>
-      <c r="BJ14" s="8">
-        <v>277</v>
-      </c>
-      <c r="BK14" s="8">
-        <v>286</v>
-      </c>
-      <c r="BL14" s="8">
-        <v>287</v>
-      </c>
-      <c r="BM14" s="8">
-        <v>288</v>
-      </c>
-      <c r="BN14" s="8">
-        <v>289</v>
-      </c>
-      <c r="BO14" s="8">
-        <v>298</v>
-      </c>
-      <c r="BP14" s="8">
-        <v>299</v>
-      </c>
-      <c r="BQ14" s="8">
-        <v>300</v>
-      </c>
-      <c r="BR14" s="8">
-        <v>301</v>
-      </c>
-      <c r="BS14" s="8">
-        <v>310</v>
-      </c>
-      <c r="BT14" s="8">
-        <v>311</v>
-      </c>
-      <c r="BU14" s="8">
-        <v>312</v>
-      </c>
-      <c r="BV14" s="8">
-        <v>313</v>
-      </c>
-      <c r="BW14" s="8">
-        <v>314</v>
-      </c>
-      <c r="BX14" s="8">
-        <v>315</v>
-      </c>
-      <c r="BY14" s="8"/>
-      <c r="BZ14" s="8"/>
-      <c r="CA14" s="8"/>
-      <c r="CB14" s="8"/>
-      <c r="CC14" s="8"/>
-      <c r="CD14" s="8"/>
-      <c r="CE14" s="8"/>
-      <c r="CF14" s="8"/>
-      <c r="CG14" s="8"/>
-      <c r="CH14" s="8"/>
-      <c r="CI14" s="8"/>
-      <c r="CJ14" s="8"/>
-      <c r="CK14" s="8"/>
-      <c r="CL14" s="8"/>
-      <c r="CM14" s="8"/>
-      <c r="CN14" s="8"/>
-      <c r="CO14" s="8"/>
-      <c r="CP14" s="8"/>
-      <c r="CQ14" s="8"/>
-      <c r="CR14" s="8"/>
-      <c r="CS14" s="8"/>
-      <c r="CT14" s="8"/>
-      <c r="CU14" s="8"/>
-      <c r="CV14" s="8"/>
-      <c r="CW14" s="8"/>
-      <c r="CX14" s="8"/>
-      <c r="CY14" s="8"/>
-      <c r="CZ14" s="8"/>
-      <c r="DA14" s="8"/>
-      <c r="DB14" s="8"/>
-      <c r="DC14" s="8"/>
-      <c r="DD14" s="8"/>
-      <c r="DE14" s="8"/>
-      <c r="DF14" s="8"/>
-      <c r="DG14" s="8"/>
-      <c r="DH14" s="8"/>
-      <c r="DI14" s="8"/>
-      <c r="DJ14" s="8"/>
-      <c r="DK14" s="8"/>
-      <c r="DL14" s="8"/>
-      <c r="DM14" s="8"/>
-      <c r="DN14" s="8"/>
-      <c r="DO14" s="8"/>
-      <c r="DP14" s="8"/>
-      <c r="DQ14" s="8"/>
-      <c r="DR14" s="8"/>
-      <c r="DS14" s="8"/>
-      <c r="DT14" s="8"/>
-      <c r="DU14" s="8"/>
-      <c r="DV14" s="8"/>
-      <c r="DW14" s="8"/>
-      <c r="DX14" s="8"/>
-      <c r="DY14" s="8"/>
-      <c r="DZ14" s="8"/>
-      <c r="EA14" s="8"/>
-      <c r="EB14" s="8"/>
-    </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="B16" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="8">
         <v>16</v>
@@ -12631,38 +12112,18 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="8">
-        <v>8640</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -12688,306 +12149,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -13021,72 +12482,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
         <v>156</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -13234,29 +12695,29 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01378AC1-15C9-4212-8612-FBB2569825C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF98CB8-59AC-4F08-A851-0C374E173516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8508" yWindow="0" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
   <si>
     <t>File</t>
   </si>
@@ -358,19 +358,6 @@
     <t>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</t>
   </si>
   <si>
-    <t>I can redo this audit but just logically run through it without validating each and every line of code (efficiency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am confident that error is negligible in flux conservation (e-18).
-I am also confident that LU Decomp error is negligibile (e-14) </t>
-  </si>
-  <si>
-    <t>What I don’t understand in the 2019 paper is that phase rotation in + direction is A, C, B</t>
-  </si>
-  <si>
-    <t>One possible thing to try if all else fails is to transpose the coordinate system of tkinter to be normal in case that messed me up somewhere</t>
-  </si>
-  <si>
     <t>Np</t>
   </si>
   <si>
@@ -539,12 +526,6 @@
     <t>ppSlotheight//2</t>
   </si>
   <si>
-    <t>I can try to plot the results for different meshes again to see what the outcome is and how consistent the meshing and B field is</t>
-  </si>
-  <si>
-    <t>Important to know that when running the comparison of the Bx value at each node a very small amount of error was seen in pixelDiv = 10 and up meaning You should run at this for efficient computing</t>
-  </si>
-  <si>
     <t>To validate my meshing I can mesh the coils into a local square mesh or a rectangle mesh. Then validate my new scaling method is correct visually</t>
   </si>
   <si>
@@ -558,37 +539,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Complex Fourier Series does not change the magnitude. Of the input waveform. This means that the MMF waveform determines everything about the final waveform in the middle of the airgap. This includes MMF and crossover points</t>
-  </si>
-  <si>
-    <t>What if I need to account for mmf in the y direction as well in the flux equations, unlikely but worth a try</t>
-  </si>
-  <si>
-    <t>Plot the By plot at the Boundary</t>
-  </si>
-  <si>
-    <t>Check the Vect Pot around the upper 2 left coils</t>
-  </si>
-  <si>
-    <t>Visually draw on the Bx matplots markers where the upper and lower coils start</t>
-  </si>
-  <si>
-    <t>1) The error could also be in the post-processing math as well</t>
-  </si>
-  <si>
-    <t>When increasing the MMF of only the top layer windings, I see no change in the result but when I do this for the lower level there is a change</t>
-  </si>
-  <si>
-    <t>I am confident the post processing code is correct after linalg
-The interesting thing is my magnitude is roughly correct now but the waveform is still really wrong
-Compared to the 2019 results, it looks almost like my waveform is mirrored in the x axis
-- This could be due to bad phase rotation or bad boundary conditions
-Today I checked and upgraded the mecHm equations to include all the MMF (this may still be wrong)
-I checked the MEC region equations last and was happy with that (cannot trust 100% though)
-What are the next steps?
-Plot Yk and check the vals for the left coils. Try this with different MMF cancelling</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1043,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,10 +1058,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9931,8 +9881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9975,7 +9925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9983,24 +9933,24 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>mecHm</v>
+        <v>LimMotor</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10008,14 +9958,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>preEqn8</v>
+        <v>Error</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -10024,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10032,23 +9982,23 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I4" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10056,14 +10006,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>timing</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10080,25 +10030,25 @@
         <v>13</v>
       </c>
       <c r="C6" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>Grid</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
+      <c r="I6" s="7" t="str">
+        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10106,14 +10056,14 @@
         <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>updateGrid</v>
+        <v>Node</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10130,23 +10080,23 @@
         <v>15</v>
       </c>
       <c r="C8" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>LimMotor</v>
+        <v>Region</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10154,23 +10104,23 @@
         <v>16</v>
       </c>
       <c r="C9" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>Error</v>
+        <v>reluctance</v>
       </c>
       <c r="H9" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -10178,23 +10128,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -10202,23 +10152,23 @@
         <v>18</v>
       </c>
       <c r="C11" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>timing</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H11" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -10226,23 +10176,23 @@
         <v>46</v>
       </c>
       <c r="C12" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>Grid</v>
+        <v>buildGrid</v>
       </c>
       <c r="H12" s="7">
-        <v>100</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10250,23 +10200,23 @@
         <v>48</v>
       </c>
       <c r="C13" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>Node</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H13" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -10274,23 +10224,23 @@
         <v>47</v>
       </c>
       <c r="C14" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>Region</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H14" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -10298,17 +10248,17 @@
         <v>50</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>reluctance</v>
+        <v>Model</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -10322,25 +10272,25 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -10348,23 +10298,23 @@
         <v>60</v>
       </c>
       <c r="C17" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>dirichlet</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -10372,17 +10322,17 @@
         <v>61</v>
       </c>
       <c r="C18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>buildGrid</v>
+        <v>hmHm</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
@@ -10402,16 +10352,16 @@
         <v>98</v>
       </c>
       <c r="F19" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>mecHm</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -10422,23 +10372,23 @@
         <v>63</v>
       </c>
       <c r="C20" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>mec</v>
       </c>
       <c r="H20" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -10446,17 +10396,17 @@
         <v>20</v>
       </c>
       <c r="C21" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>Model</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
@@ -10470,20 +10420,20 @@
         <v>21</v>
       </c>
       <c r="C22" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10494,17 +10444,17 @@
         <v>44</v>
       </c>
       <c r="C23" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>dirichlet</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
         <v>0</v>
@@ -10525,10 +10475,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>hmHm</v>
+        <v>preEqn8</v>
       </c>
       <c r="H24" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
@@ -10542,17 +10492,17 @@
         <v>23</v>
       </c>
       <c r="C25" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>mec</v>
+        <v>postEqn8</v>
       </c>
       <c r="H25" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
@@ -10566,17 +10516,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>postEqn9</v>
       </c>
       <c r="H26" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
         <v>0</v>
@@ -10590,17 +10540,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H27" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
         <v>0</v>
@@ -10614,17 +10564,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H28" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
         <v>0</v>
@@ -10638,17 +10588,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>postEqn8</v>
+        <v>preEqn21</v>
       </c>
       <c r="H29" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
@@ -10662,17 +10612,17 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn21</v>
       </c>
       <c r="H30" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <v>0</v>
@@ -10695,13 +10645,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H31" s="7">
-        <v>100</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <v>Assuming my math is right</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -10712,17 +10662,17 @@
         <v>59</v>
       </c>
       <c r="C32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H32" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
@@ -10736,17 +10686,17 @@
         <v>58</v>
       </c>
       <c r="C33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3"/>
       <c r="F33" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>preEqn21</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
@@ -10760,17 +10710,17 @@
         <v>57</v>
       </c>
       <c r="C34" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>postEqn21</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H34" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
         <v>0</v>
@@ -10784,17 +10734,17 @@
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H35" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
         <v>0</v>
@@ -10815,10 +10765,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H36" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
@@ -10832,17 +10782,17 @@
         <v>56</v>
       </c>
       <c r="C37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>updateLists</v>
       </c>
       <c r="H37" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
         <v>0</v>
@@ -10856,17 +10806,17 @@
         <v>55</v>
       </c>
       <c r="C38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H38" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -10887,10 +10837,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>updateLists</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H39" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
@@ -10904,17 +10854,17 @@
         <v>51</v>
       </c>
       <c r="C40" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>genForces</v>
       </c>
       <c r="H40" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
@@ -10928,17 +10878,17 @@
         <v>32</v>
       </c>
       <c r="C41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3"/>
       <c r="F41" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>genForces</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H41" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
@@ -10959,10 +10909,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>updateGrid</v>
       </c>
       <c r="H42" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -10976,7 +10926,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
@@ -10986,7 +10936,7 @@
         <v>colorFader</v>
       </c>
       <c r="H43" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
@@ -11000,7 +10950,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
@@ -11010,7 +10960,7 @@
         <v>myColourNumber</v>
       </c>
       <c r="H44" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
@@ -11024,7 +10974,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
@@ -11034,7 +10984,7 @@
         <v>determineColour</v>
       </c>
       <c r="H45" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
         <v>0</v>
@@ -11048,7 +10998,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
@@ -11058,7 +11008,7 @@
         <v>minMaxField</v>
       </c>
       <c r="H46" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
         <v>0</v>
@@ -11072,7 +11022,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
@@ -11082,7 +11032,7 @@
         <v>combineFilterList</v>
       </c>
       <c r="H47" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
         <v>0</v>
@@ -11096,7 +11046,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
@@ -11106,7 +11056,7 @@
         <v>genCanvasMatrix</v>
       </c>
       <c r="H48" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
         <v>0</v>
@@ -11120,7 +11070,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
@@ -11130,7 +11080,7 @@
         <v>visualizeMatrix</v>
       </c>
       <c r="H49" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
@@ -11144,7 +11094,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
@@ -11154,7 +11104,7 @@
         <v>showModel</v>
       </c>
       <c r="H50" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
@@ -11168,7 +11118,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
@@ -11178,7 +11128,7 @@
         <v>plotPointsAlongX</v>
       </c>
       <c r="H51" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
         <v>0</v>
@@ -11192,7 +11142,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="7" t="str">
@@ -11202,7 +11152,7 @@
         <v>main</v>
       </c>
       <c r="H52" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
         <v>0</v>
@@ -11216,7 +11166,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
@@ -11226,7 +11176,7 @@
         <v>destruct</v>
       </c>
       <c r="H53" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
         <v>0</v>
@@ -11240,7 +11190,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
@@ -11250,7 +11200,7 @@
         <v>construct</v>
       </c>
       <c r="H54" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
@@ -11264,7 +11214,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6"/>
       <c r="F55" s="7" t="str">
@@ -11274,7 +11224,7 @@
         <v>jsonStoreSolution</v>
       </c>
       <c r="H55" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
@@ -11288,7 +11238,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6"/>
       <c r="F56" s="7" t="str">
@@ -11298,7 +11248,7 @@
         <v>main</v>
       </c>
       <c r="H56" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
@@ -11310,84 +11260,52 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>600</v>
+        <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>100</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="15"/>
       <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>160</v>
-      </c>
+    <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
       <c r="D60" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>166</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
       <c r="B62" s="21"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>167</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>170</v>
-      </c>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="15"/>
+      <c r="C66" s="10"/>
     </row>
-    <row r="68" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
-        <v>173</v>
-      </c>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
       <c r="B68" s="7"/>
     </row>
   </sheetData>
@@ -11404,8 +11322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB53FA3-97E7-4737-912B-B0A83665D811}">
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12149,306 +12067,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12483,7 +12401,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -12511,13 +12429,13 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -12526,28 +12444,28 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -12696,7 +12614,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01378AC1-15C9-4212-8612-FBB2569825C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7098A96-2179-4193-9E1C-A822459F33A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8508" yWindow="0" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
   <si>
     <t>File</t>
   </si>
@@ -358,19 +358,6 @@
     <t>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</t>
   </si>
   <si>
-    <t>I can redo this audit but just logically run through it without validating each and every line of code (efficiency)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am confident that error is negligible in flux conservation (e-18).
-I am also confident that LU Decomp error is negligibile (e-14) </t>
-  </si>
-  <si>
-    <t>What I don’t understand in the 2019 paper is that phase rotation in + direction is A, C, B</t>
-  </si>
-  <si>
-    <t>One possible thing to try if all else fails is to transpose the coordinate system of tkinter to be normal in case that messed me up somewhere</t>
-  </si>
-  <si>
     <t>Np</t>
   </si>
   <si>
@@ -539,12 +526,6 @@
     <t>ppSlotheight//2</t>
   </si>
   <si>
-    <t>I can try to plot the results for different meshes again to see what the outcome is and how consistent the meshing and B field is</t>
-  </si>
-  <si>
-    <t>Important to know that when running the comparison of the Bx value at each node a very small amount of error was seen in pixelDiv = 10 and up meaning You should run at this for efficient computing</t>
-  </si>
-  <si>
     <t>To validate my meshing I can mesh the coils into a local square mesh or a rectangle mesh. Then validate my new scaling method is correct visually</t>
   </si>
   <si>
@@ -558,37 +539,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Complex Fourier Series does not change the magnitude. Of the input waveform. This means that the MMF waveform determines everything about the final waveform in the middle of the airgap. This includes MMF and crossover points</t>
-  </si>
-  <si>
-    <t>What if I need to account for mmf in the y direction as well in the flux equations, unlikely but worth a try</t>
-  </si>
-  <si>
-    <t>Plot the By plot at the Boundary</t>
-  </si>
-  <si>
-    <t>Check the Vect Pot around the upper 2 left coils</t>
-  </si>
-  <si>
-    <t>Visually draw on the Bx matplots markers where the upper and lower coils start</t>
-  </si>
-  <si>
-    <t>1) The error could also be in the post-processing math as well</t>
-  </si>
-  <si>
-    <t>When increasing the MMF of only the top layer windings, I see no change in the result but when I do this for the lower level there is a change</t>
-  </si>
-  <si>
-    <t>I am confident the post processing code is correct after linalg
-The interesting thing is my magnitude is roughly correct now but the waveform is still really wrong
-Compared to the 2019 results, it looks almost like my waveform is mirrored in the x axis
-- This could be due to bad phase rotation or bad boundary conditions
-Today I checked and upgraded the mecHm equations to include all the MMF (this may still be wrong)
-I checked the MEC region equations last and was happy with that (cannot trust 100% though)
-What are the next steps?
-Plot Yk and check the vals for the left coils. Try this with different MMF cancelling</t>
   </si>
 </sst>
 </file>
@@ -1093,10 +1043,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,10 +1058,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4900</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9931,8 +9881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9975,7 +9925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9983,24 +9933,24 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>mecHm</v>
+        <v>LimMotor</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -10008,14 +9958,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>preEqn8</v>
+        <v>Error</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -10024,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -10032,23 +9982,23 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I4" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10056,14 +10006,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>timing</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10080,25 +10030,25 @@
         <v>13</v>
       </c>
       <c r="C6" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>Grid</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
+      <c r="I6" s="7" t="str">
+        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10106,14 +10056,14 @@
         <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>updateGrid</v>
+        <v>Node</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10130,23 +10080,23 @@
         <v>15</v>
       </c>
       <c r="C8" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>LimMotor</v>
+        <v>Region</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10154,23 +10104,23 @@
         <v>16</v>
       </c>
       <c r="C9" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>Error</v>
+        <v>reluctance</v>
       </c>
       <c r="H9" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -10178,23 +10128,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -10202,23 +10152,23 @@
         <v>18</v>
       </c>
       <c r="C11" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>timing</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H11" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -10226,23 +10176,23 @@
         <v>46</v>
       </c>
       <c r="C12" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>Grid</v>
+        <v>buildGrid</v>
       </c>
       <c r="H12" s="7">
-        <v>100</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -10250,23 +10200,23 @@
         <v>48</v>
       </c>
       <c r="C13" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>Node</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H13" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -10274,23 +10224,23 @@
         <v>47</v>
       </c>
       <c r="C14" s="14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>Region</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H14" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -10298,17 +10248,17 @@
         <v>50</v>
       </c>
       <c r="C15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>reluctance</v>
+        <v>Model</v>
       </c>
       <c r="H15" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -10322,25 +10272,25 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -10348,23 +10298,23 @@
         <v>60</v>
       </c>
       <c r="C17" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>dirichlet</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
@@ -10372,17 +10322,17 @@
         <v>61</v>
       </c>
       <c r="C18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>buildGrid</v>
+        <v>hmHm</v>
       </c>
       <c r="H18" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <v>0</v>
@@ -10402,16 +10352,16 @@
         <v>98</v>
       </c>
       <c r="F19" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>mecHm</v>
       </c>
       <c r="H19" s="7">
-        <v>100</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -10422,23 +10372,23 @@
         <v>63</v>
       </c>
       <c r="C20" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>mec</v>
       </c>
       <c r="H20" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
@@ -10446,17 +10396,17 @@
         <v>20</v>
       </c>
       <c r="C21" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>Model</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H21" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
@@ -10470,20 +10420,20 @@
         <v>21</v>
       </c>
       <c r="C22" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10494,17 +10444,17 @@
         <v>44</v>
       </c>
       <c r="C23" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>dirichlet</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H23" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
         <v>0</v>
@@ -10525,10 +10475,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>hmHm</v>
+        <v>preEqn8</v>
       </c>
       <c r="H24" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
@@ -10542,17 +10492,17 @@
         <v>23</v>
       </c>
       <c r="C25" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>mec</v>
+        <v>postEqn8</v>
       </c>
       <c r="H25" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
@@ -10566,17 +10516,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>postEqn9</v>
       </c>
       <c r="H26" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
         <v>0</v>
@@ -10590,17 +10540,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H27" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="7">
         <v>0</v>
@@ -10614,17 +10564,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H28" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
         <v>0</v>
@@ -10638,17 +10588,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>postEqn8</v>
+        <v>preEqn21</v>
       </c>
       <c r="H29" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
@@ -10662,17 +10612,17 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn21</v>
       </c>
       <c r="H30" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
         <v>0</v>
@@ -10695,13 +10645,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H31" s="7">
-        <v>100</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7" t="str">
+        <v>Assuming my math is right</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -10712,17 +10662,17 @@
         <v>59</v>
       </c>
       <c r="C32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H32" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
         <v>0</v>
@@ -10736,17 +10686,17 @@
         <v>58</v>
       </c>
       <c r="C33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3"/>
       <c r="F33" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>preEqn21</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
@@ -10760,17 +10710,17 @@
         <v>57</v>
       </c>
       <c r="C34" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>postEqn21</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H34" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I34" s="7">
         <v>0</v>
@@ -10784,17 +10734,17 @@
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H35" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="7">
         <v>0</v>
@@ -10815,10 +10765,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H36" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
         <v>0</v>
@@ -10832,17 +10782,17 @@
         <v>56</v>
       </c>
       <c r="C37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>updateLists</v>
       </c>
       <c r="H37" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I37" s="7">
         <v>0</v>
@@ -10856,17 +10806,17 @@
         <v>55</v>
       </c>
       <c r="C38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H38" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -10887,10 +10837,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>updateLists</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H39" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
@@ -10904,17 +10854,17 @@
         <v>51</v>
       </c>
       <c r="C40" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>genForces</v>
       </c>
       <c r="H40" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
@@ -10928,17 +10878,17 @@
         <v>32</v>
       </c>
       <c r="C41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D41" s="3"/>
       <c r="F41" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>genForces</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H41" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
@@ -10959,10 +10909,10 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>updateGrid</v>
       </c>
       <c r="H42" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -10976,7 +10926,7 @@
         <v>33</v>
       </c>
       <c r="C43" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
@@ -10986,7 +10936,7 @@
         <v>colorFader</v>
       </c>
       <c r="H43" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
@@ -11000,7 +10950,7 @@
         <v>34</v>
       </c>
       <c r="C44" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
@@ -11010,7 +10960,7 @@
         <v>myColourNumber</v>
       </c>
       <c r="H44" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
@@ -11024,7 +10974,7 @@
         <v>35</v>
       </c>
       <c r="C45" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
@@ -11034,7 +10984,7 @@
         <v>determineColour</v>
       </c>
       <c r="H45" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
         <v>0</v>
@@ -11048,7 +10998,7 @@
         <v>36</v>
       </c>
       <c r="C46" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
@@ -11058,7 +11008,7 @@
         <v>minMaxField</v>
       </c>
       <c r="H46" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
         <v>0</v>
@@ -11072,7 +11022,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
@@ -11082,7 +11032,7 @@
         <v>combineFilterList</v>
       </c>
       <c r="H47" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
         <v>0</v>
@@ -11096,7 +11046,7 @@
         <v>38</v>
       </c>
       <c r="C48" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
@@ -11106,7 +11056,7 @@
         <v>genCanvasMatrix</v>
       </c>
       <c r="H48" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
         <v>0</v>
@@ -11120,7 +11070,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
@@ -11130,7 +11080,7 @@
         <v>visualizeMatrix</v>
       </c>
       <c r="H49" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
@@ -11144,7 +11094,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
@@ -11154,7 +11104,7 @@
         <v>showModel</v>
       </c>
       <c r="H50" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
@@ -11168,7 +11118,7 @@
         <v>32</v>
       </c>
       <c r="C51" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
@@ -11178,7 +11128,7 @@
         <v>plotPointsAlongX</v>
       </c>
       <c r="H51" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I51" s="7">
         <v>0</v>
@@ -11192,7 +11142,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="7" t="str">
@@ -11202,7 +11152,7 @@
         <v>main</v>
       </c>
       <c r="H52" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
         <v>0</v>
@@ -11216,7 +11166,7 @@
         <v>41</v>
       </c>
       <c r="C53" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
@@ -11226,7 +11176,7 @@
         <v>destruct</v>
       </c>
       <c r="H53" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I53" s="7">
         <v>0</v>
@@ -11240,7 +11190,7 @@
         <v>42</v>
       </c>
       <c r="C54" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
@@ -11250,7 +11200,7 @@
         <v>construct</v>
       </c>
       <c r="H54" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
@@ -11264,7 +11214,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6"/>
       <c r="F55" s="7" t="str">
@@ -11274,7 +11224,7 @@
         <v>jsonStoreSolution</v>
       </c>
       <c r="H55" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
@@ -11288,7 +11238,7 @@
         <v>39</v>
       </c>
       <c r="C56" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6"/>
       <c r="F56" s="7" t="str">
@@ -11298,7 +11248,7 @@
         <v>main</v>
       </c>
       <c r="H56" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
@@ -11310,84 +11260,52 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>600</v>
+        <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>100</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="15"/>
       <c r="E58" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>160</v>
-      </c>
+    <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
       <c r="D60" s="15" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>166</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="15"/>
       <c r="B62" s="21"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>167</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>170</v>
-      </c>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="15"/>
+      <c r="C66" s="10"/>
     </row>
-    <row r="68" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
-        <v>173</v>
-      </c>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
       <c r="B68" s="7"/>
     </row>
   </sheetData>
@@ -11404,8 +11322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB53FA3-97E7-4737-912B-B0A83665D811}">
   <dimension ref="A1:AZ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12149,306 +12067,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12483,7 +12401,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -12511,13 +12429,13 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -12526,28 +12444,28 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" t="s">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" t="s">
         <v>153</v>
-      </c>
-      <c r="H3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -12696,7 +12614,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF98CB8-59AC-4F08-A851-0C374E173516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E2CE4-5E83-4B27-9476-F42BA5EA3C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
   <si>
     <t>File</t>
   </si>
@@ -208,9 +208,6 @@
     <t>setRegionIndices</t>
   </si>
   <si>
-    <t>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -352,12 +349,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Assuming my math is right</t>
-  </si>
-  <si>
-    <t>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</t>
-  </si>
-  <si>
     <t>Np</t>
   </si>
   <si>
@@ -539,13 +530,16 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Fix this by removing ww and ee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +625,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -745,7 +747,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1043,10 +1048,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5500</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,10 +1063,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5500</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9881,8 +9886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9925,7 +9930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -9933,15 +9938,15 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
         <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>LimMotor</v>
+        <v>Node</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -9950,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -9958,14 +9963,14 @@
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>Error</v>
+        <v>Region</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -9974,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -9982,14 +9987,14 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9998,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -10006,14 +10011,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>timing</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10022,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10030,22 +10035,20 @@
         <v>13</v>
       </c>
       <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="F6" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>Grid</v>
+        <v>buildGrid</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="str">
-        <v>small source for error is sigma is not exact and rather is 1 or 0 which can be improved. I think we should comb through Grid class to make sure its mostly np.array not lists and clean it up</v>
+      <c r="I6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -10063,7 +10066,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>Node</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10072,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>Region</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10096,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -10104,14 +10107,14 @@
         <v>16</v>
       </c>
       <c r="C9" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>reluctance</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10132,10 +10135,10 @@
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>mecHm</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10156,10 +10159,10 @@
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>mec</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10180,10 +10183,10 @@
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>buildGrid</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10204,10 +10207,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10228,10 +10231,10 @@
       </c>
       <c r="D14" s="1"/>
       <c r="F14" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>preEqn8</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10240,22 +10243,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="3"/>
       <c r="F15" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>Model</v>
+        <v>postEqn8</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10264,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -10274,38 +10277,36 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>postEqn9</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I16" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>dirichlet</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10314,22 +10315,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>hmHm</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10338,30 +10339,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="23">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="F19" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>mecHm</v>
+        <v>preEqn21</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="str">
-        <v>The worst case error is e^-17 and propogates to roughly e^-14 when calculating B field. This is still negligible</v>
+      <c r="I19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -10369,7 +10368,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="23">
         <v>0</v>
@@ -10379,7 +10378,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>mec</v>
+        <v>postEqn21</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10403,7 +10402,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10427,13 +10426,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
+      <c r="I22" s="7" t="str">
+        <v>Fix this by removing ww and ee</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10444,14 +10443,14 @@
         <v>44</v>
       </c>
       <c r="C23" s="23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10475,7 +10474,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>preEqn8</v>
+        <v>updateLists</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10499,7 +10498,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>postEqn8</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10523,7 +10522,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>postEqn9</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10547,7 +10546,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>genForces</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10571,7 +10570,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10595,7 +10594,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>preEqn21</v>
+        <v>updateGrid</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10616,10 +10615,10 @@
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>postEqn21</v>
+        <v>colorFader</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10638,20 +10637,18 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="F31" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
       </c>
-      <c r="I31" s="7" t="str">
-        <v>Assuming my math is right</v>
+      <c r="I31" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -10659,17 +10656,17 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>determineColour</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10678,22 +10675,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>58</v>
+      <c r="B33" s="26" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F33" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>minMaxField</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10707,17 +10706,17 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10738,10 +10737,10 @@
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10758,14 +10757,14 @@
         <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10779,17 +10778,17 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>updateLists</v>
+        <v>showModel</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10803,17 +10802,17 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10827,17 +10826,17 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>main</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10851,17 +10850,17 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>Platypus</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>genForces</v>
+        <v>destruct</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -10882,10 +10881,10 @@
       </c>
       <c r="D41" s="3"/>
       <c r="F41" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>Platypus</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>construct</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -10899,17 +10898,17 @@
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
       </c>
       <c r="D42" s="3"/>
       <c r="F42" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>Platypus</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>updateGrid</v>
+        <v>jsonStoreSolution</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -10930,10 +10929,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G43" s="7" t="str">
-        <v>colorFader</v>
+        <v>main</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -10954,13 +10953,13 @@
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>LimMotor</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
@@ -10978,13 +10977,13 @@
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>determineColour</v>
+        <v>Error</v>
       </c>
       <c r="H45" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="7">
         <v>0</v>
@@ -11002,13 +11001,13 @@
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>minMaxField</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="7">
         <v>0</v>
@@ -11026,13 +11025,13 @@
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>timing</v>
       </c>
       <c r="H47" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I47" s="7">
         <v>0</v>
@@ -11050,13 +11049,13 @@
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>Grid</v>
       </c>
       <c r="H48" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="7">
         <v>0</v>
@@ -11067,20 +11066,20 @@
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>reluctance</v>
       </c>
       <c r="H49" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="7">
         <v>0</v>
@@ -11091,20 +11090,20 @@
         <v>7</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>showModel</v>
+        <v>Model</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I50" s="7">
         <v>0</v>
@@ -11122,13 +11121,13 @@
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>dirichlet</v>
       </c>
       <c r="H51" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I51" s="7">
         <v>0</v>
@@ -11146,13 +11145,13 @@
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>main</v>
+        <v>hmHm</v>
       </c>
       <c r="H52" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="7">
         <v>0</v>
@@ -11170,13 +11169,13 @@
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>destruct</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H53" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I53" s="7">
         <v>0</v>
@@ -11194,13 +11193,13 @@
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>construct</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H54" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
@@ -11218,13 +11217,13 @@
       </c>
       <c r="D55" s="6"/>
       <c r="F55" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H55" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55" s="7">
         <v>0</v>
@@ -11242,13 +11241,13 @@
       </c>
       <c r="D56" s="6"/>
       <c r="F56" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G56" s="7" t="str">
-        <v>main</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H56" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I56" s="7">
         <v>0</v>
@@ -11260,11 +11259,11 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>5500</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -11278,7 +11277,7 @@
     <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
       <c r="D60" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -11334,7 +11333,7 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="9">
         <v>5</v>
@@ -11342,13 +11341,13 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8">
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -11373,13 +11372,13 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -11406,13 +11405,13 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -11453,13 +11452,13 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -11488,13 +11487,13 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="8">
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -11525,13 +11524,13 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="8">
         <v>6</v>
@@ -11562,13 +11561,13 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8">
         <v>164</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="8">
         <v>9</v>
@@ -11595,13 +11594,13 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
@@ -11628,13 +11627,13 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8">
         <v>164</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="8">
         <v>11</v>
@@ -11663,13 +11662,13 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8">
         <v>13</v>
@@ -11696,7 +11695,7 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8">
         <v>3</v>
@@ -11704,13 +11703,13 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="8">
         <v>43</v>
@@ -11859,13 +11858,13 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E14" s="8">
         <v>40</v>
@@ -11990,7 +11989,7 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -11998,7 +11997,7 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -12006,7 +12005,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -12014,7 +12013,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -12022,7 +12021,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="8">
         <v>16</v>
@@ -12030,7 +12029,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8">
         <v>1312</v>
@@ -12038,7 +12037,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -12067,306 +12066,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12401,7 +12400,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -12416,7 +12415,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -12429,43 +12428,43 @@
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>149</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>150</v>
-      </c>
-      <c r="I3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -12614,7 +12613,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623E2CE4-5E83-4B27-9476-F42BA5EA3C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD47091-E9E4-4B20-9DCF-60029A32ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
   <si>
     <t>File</t>
   </si>
@@ -530,9 +530,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Fix this by removing ww and ee</t>
   </si>
 </sst>
 </file>
@@ -630,9 +627,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1048,10 +1043,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1300</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,10 +1058,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1300</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4200</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9887,7 +9882,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10114,7 +10109,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>mecHm</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10138,7 +10133,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>mecHm</v>
+        <v>mec</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10162,7 +10157,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>mec</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10186,7 +10181,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10210,7 +10205,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>preEqn8</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10234,7 +10229,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>preEqn8</v>
+        <v>postEqn8</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10258,7 +10253,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>postEqn8</v>
+        <v>postEqn9</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10267,7 +10262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
@@ -10275,14 +10270,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10306,7 +10301,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10330,7 +10325,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>preEqn21</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10354,7 +10349,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>preEqn21</v>
+        <v>postEqn21</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10378,7 +10373,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>postEqn21</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10402,7 +10397,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>genForces</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10426,13 +10421,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7" t="str">
-        <v>Fix this by removing ww and ee</v>
+      <c r="I22" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -10450,7 +10445,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>updateGrid</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10471,10 +10466,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>updateLists</v>
+        <v>colorFader</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10495,10 +10490,10 @@
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10519,10 +10514,10 @@
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>determineColour</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10543,10 +10538,10 @@
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>genForces</v>
+        <v>minMaxField</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10567,10 +10562,10 @@
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10591,10 +10586,10 @@
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>updateGrid</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10618,7 +10613,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>colorFader</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10642,7 +10637,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>showModel</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10663,10 +10658,10 @@
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>determineColour</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10675,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -10683,16 +10678,14 @@
         <v>57</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D33" s="3"/>
       <c r="F33" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>minMaxField</v>
+        <v>main</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10713,10 +10706,10 @@
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>destruct</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10733,14 +10726,14 @@
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>construct</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10761,10 +10754,10 @@
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>jsonStoreSolution</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10781,14 +10774,14 @@
         <v>55</v>
       </c>
       <c r="C37" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>showModel</v>
+        <v>main</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10805,17 +10798,17 @@
         <v>54</v>
       </c>
       <c r="C38" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>LimMotor</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -10829,17 +10822,17 @@
         <v>53</v>
       </c>
       <c r="C39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>main</v>
+        <v>Error</v>
       </c>
       <c r="H39" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
@@ -10857,13 +10850,13 @@
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>destruct</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H40" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
@@ -10881,13 +10874,13 @@
       </c>
       <c r="D41" s="3"/>
       <c r="F41" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>construct</v>
+        <v>timing</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
@@ -10905,13 +10898,13 @@
       </c>
       <c r="D42" s="3"/>
       <c r="F42" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>Grid</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -10929,13 +10922,13 @@
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G43" s="7" t="str">
-        <v>main</v>
+        <v>reluctance</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
@@ -10953,10 +10946,10 @@
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>LimMotor</v>
+        <v>Model</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -10977,10 +10970,10 @@
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>Error</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -11001,10 +10994,10 @@
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>dirichlet</v>
       </c>
       <c r="H46" s="7">
         <v>100</v>
@@ -11025,10 +11018,10 @@
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>timing</v>
+        <v>hmHm</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -11049,10 +11042,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>Grid</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
@@ -11073,10 +11066,10 @@
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>reluctance</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H49" s="7">
         <v>100</v>
@@ -11100,7 +11093,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>Model</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H50" s="7">
         <v>100</v>
@@ -11124,7 +11117,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>dirichlet</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H51" s="7">
         <v>100</v>
@@ -11148,7 +11141,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>hmHm</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H52" s="7">
         <v>100</v>
@@ -11172,7 +11165,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
@@ -11196,7 +11189,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>updateLists</v>
       </c>
       <c r="H54" s="7">
         <v>100</v>
@@ -11220,7 +11213,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H55" s="7">
         <v>100</v>
@@ -11244,7 +11237,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G56" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H56" s="7">
         <v>100</v>
@@ -11259,11 +11252,11 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>4200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD47091-E9E4-4B20-9DCF-60029A32ED9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE48ED-D4EC-46DF-9DA2-EB76178D7740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
   <si>
     <t>File</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>There are some errors with .phiError</t>
   </si>
 </sst>
 </file>
@@ -809,14 +812,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -9882,7 +9885,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10450,8 +10453,8 @@
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
+      <c r="I23" s="7" t="str">
+        <v>There are some errors with .phiError</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -10674,7 +10677,7 @@
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="3">
@@ -10886,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
@@ -10896,7 +10899,9 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F42" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
@@ -12392,38 +12397,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12605,29 +12610,29 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEE48ED-D4EC-46DF-9DA2-EB76178D7740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021ABAF-382A-416D-B5A4-69C4CE221E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="159">
   <si>
     <t>File</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>There are some errors with .phiError</t>
+  </si>
+  <si>
+    <t>Something interesting with figure 2 in 2019 is that the origin starts at back iron not in the vac region. This could mean that they just don’t actually use that region in the calculation since it basically just removeds bn at -inf and an at inf. So where I have hb in hmHm between vac and Back iron as 0.00405 it might need to be 0 instead</t>
   </si>
 </sst>
 </file>
@@ -9884,8 +9887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11272,7 +11275,10 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="22" t="s">
+        <v>158</v>
+      </c>
       <c r="B60" s="7"/>
       <c r="D60" s="15" t="s">
         <v>153</v>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1021ABAF-382A-416D-B5A4-69C4CE221E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8896FDF-B1DF-4560-BADF-138D2D906320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
   <si>
     <t>File</t>
   </si>
@@ -536,6 +536,12 @@
   </si>
   <si>
     <t>Something interesting with figure 2 in 2019 is that the origin starts at back iron not in the vac region. This could mean that they just don’t actually use that region in the calculation since it basically just removeds bn at -inf and an at inf. So where I have hb in hmHm between vac and Back iron as 0.00405 it might need to be 0 instead</t>
+  </si>
+  <si>
+    <t>Rules:</t>
+  </si>
+  <si>
+    <t>hm and mec regions defined in Platypus should follow the indexing in the y direction.</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +829,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -9341,6 +9350,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81951</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>35931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3023CFA-79C1-46AE-B668-66A9AED7CAD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3155577" y="11734800"/>
+          <a:ext cx="14631668" cy="5997460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9887,8 +9940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11288,12 +11341,19 @@
       <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
+      <c r="A62" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="B62" s="21"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
+      <c r="A63" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
@@ -11312,6 +11372,9 @@
       <c r="B68" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A63:D63"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8896FDF-B1DF-4560-BADF-138D2D906320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73375D68-D06F-4A2A-90D0-508E0BB2C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
     <sheet name="TrackVars" sheetId="3" r:id="rId2"/>
     <sheet name="TrackConstants" sheetId="4" r:id="rId3"/>
     <sheet name="PlotCorrelation" sheetId="5" r:id="rId4"/>
+    <sheet name="invertY" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
   <si>
     <t>File</t>
   </si>
@@ -542,6 +543,15 @@
   </si>
   <si>
     <t>hm and mec regions defined in Platypus should follow the indexing in the y direction.</t>
+  </si>
+  <si>
+    <t>Factors at play</t>
+  </si>
+  <si>
+    <t>model.matrix row y position</t>
+  </si>
+  <si>
+    <t>model.matrix row index containing what region</t>
   </si>
 </sst>
 </file>
@@ -825,13 +835,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1058,10 +1068,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3600</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,10 +1083,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1900</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3600</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9350,50 +9360,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>81951</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>35931</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3023CFA-79C1-46AE-B668-66A9AED7CAD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3155577" y="11734800"/>
-          <a:ext cx="14631668" cy="5997460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9623,6 +9589,114 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>157753</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>21261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE126A33-0CA6-4372-BDA5-CEB3B3A8A3B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908573" y="0"/>
+          <a:ext cx="4736840" cy="569901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9614249-D5D3-41BC-AF35-48D6DCBC64E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="3547" b="6422"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2903220" y="609600"/>
+          <a:ext cx="4754880" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9940,8 +10014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10000,7 +10074,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G2" s="7" t="str">
-        <v>Node</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -10024,7 +10098,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G3" s="7" t="str">
-        <v>Region</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -10048,7 +10122,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G4" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -10069,10 +10143,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>checkSpatialMapping</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10093,10 +10167,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>buildGrid</v>
+        <v>dirichlet</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10105,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -10113,14 +10187,14 @@
         <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>setRegionIndices</v>
+        <v>hmHm</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10137,14 +10211,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>finalizeGrid</v>
+        <v>mecHm</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10168,7 +10242,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>mecHm</v>
+        <v>mec</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10177,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -10185,14 +10259,14 @@
         <v>17</v>
       </c>
       <c r="C10" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>mec</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10216,7 +10290,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10225,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -10233,14 +10307,14 @@
         <v>46</v>
       </c>
       <c r="C12" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1"/>
       <c r="F12" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>preEqn8</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10264,7 +10338,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>preEqn8</v>
+        <v>postEqn8</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10288,7 +10362,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>postEqn8</v>
+        <v>postEqn9</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10312,7 +10386,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10329,14 +10403,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10353,14 +10427,14 @@
         <v>59</v>
       </c>
       <c r="C17" s="23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>preEqn21</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10377,14 +10451,14 @@
         <v>60</v>
       </c>
       <c r="C18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>preEqn21</v>
+        <v>postEqn21</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10408,7 +10482,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>postEqn21</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10432,7 +10506,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10456,7 +10530,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>genForces</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10480,7 +10554,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10504,13 +10578,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>updateGrid</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
-      <c r="I23" s="7" t="str">
-        <v>There are some errors with .phiError</v>
+      <c r="I23" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -10525,10 +10599,10 @@
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>colorFader</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10549,10 +10623,10 @@
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>updateLists</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10573,10 +10647,10 @@
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>determineColour</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10597,10 +10671,10 @@
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>minMaxField</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10621,10 +10695,10 @@
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>genForces</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10645,10 +10719,10 @@
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10669,16 +10743,16 @@
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>updateGrid</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="7">
-        <v>0</v>
+      <c r="I30" s="7" t="str">
+        <v>There are some errors with .phiError</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -10696,7 +10770,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>showModel</v>
+        <v>colorFader</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10713,14 +10787,14 @@
         <v>58</v>
       </c>
       <c r="C32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D32" s="3"/>
       <c r="F32" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10737,14 +10811,14 @@
         <v>57</v>
       </c>
       <c r="C33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D33" s="3"/>
       <c r="F33" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>main</v>
+        <v>determineColour</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10761,14 +10835,14 @@
         <v>56</v>
       </c>
       <c r="C34" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>destruct</v>
+        <v>minMaxField</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10785,14 +10859,14 @@
         <v>30</v>
       </c>
       <c r="C35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>construct</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10809,14 +10883,14 @@
         <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10833,14 +10907,14 @@
         <v>55</v>
       </c>
       <c r="C37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>main</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10857,17 +10931,17 @@
         <v>54</v>
       </c>
       <c r="C38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>LimMotor</v>
+        <v>showModel</v>
       </c>
       <c r="H38" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
         <v>0</v>
@@ -10881,17 +10955,17 @@
         <v>53</v>
       </c>
       <c r="C39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>Error</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H39" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I39" s="7">
         <v>0</v>
@@ -10909,13 +10983,13 @@
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>main</v>
       </c>
       <c r="H40" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
         <v>0</v>
@@ -10933,13 +11007,13 @@
       </c>
       <c r="D41" s="3"/>
       <c r="F41" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>Platypus</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>timing</v>
+        <v>destruct</v>
       </c>
       <c r="H41" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
@@ -10959,13 +11033,13 @@
         <v>157</v>
       </c>
       <c r="F42" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>Platypus</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>Grid</v>
+        <v>construct</v>
       </c>
       <c r="H42" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -10983,13 +11057,13 @@
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>Platypus</v>
       </c>
       <c r="G43" s="7" t="str">
-        <v>reluctance</v>
+        <v>jsonStoreSolution</v>
       </c>
       <c r="H43" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
@@ -11007,13 +11081,13 @@
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>Platypus</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>Model</v>
+        <v>main</v>
       </c>
       <c r="H44" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
@@ -11031,10 +11105,10 @@
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>LimMotor</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -11055,10 +11129,10 @@
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>dirichlet</v>
+        <v>Error</v>
       </c>
       <c r="H46" s="7">
         <v>100</v>
@@ -11079,10 +11153,10 @@
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>hmHm</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -11103,10 +11177,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>timing</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
@@ -11127,10 +11201,10 @@
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>Grid</v>
       </c>
       <c r="H49" s="7">
         <v>100</v>
@@ -11151,10 +11225,10 @@
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>Node</v>
       </c>
       <c r="H50" s="7">
         <v>100</v>
@@ -11175,10 +11249,10 @@
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>Region</v>
       </c>
       <c r="H51" s="7">
         <v>100</v>
@@ -11199,10 +11273,10 @@
       </c>
       <c r="D52" s="5"/>
       <c r="F52" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>reluctance</v>
       </c>
       <c r="H52" s="7">
         <v>100</v>
@@ -11223,10 +11297,10 @@
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
@@ -11247,10 +11321,10 @@
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>updateLists</v>
+        <v>buildGrid</v>
       </c>
       <c r="H54" s="7">
         <v>100</v>
@@ -11274,7 +11348,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>Model</v>
       </c>
       <c r="H55" s="7">
         <v>100</v>
@@ -11298,7 +11372,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G56" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H56" s="7">
         <v>100</v>
@@ -11313,11 +11387,11 @@
       </c>
       <c r="C57" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="D57" s="7">
         <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>3600</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -11348,12 +11422,12 @@
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
@@ -12466,38 +12540,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12679,29 +12753,29 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12714,4 +12788,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E3EC59-2651-4706-B929-4FC0A25DD1E7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73375D68-D06F-4A2A-90D0-508E0BB2C379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A5932C-E2B9-47D5-BE9D-9112E91D33D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -12795,7 +12795,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A5932C-E2B9-47D5-BE9D-9112E91D33D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B9DE4-EBC0-4C7D-B8E9-88BD012686B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
   <si>
     <t>File</t>
   </si>
@@ -542,9 +542,6 @@
     <t>Rules:</t>
   </si>
   <si>
-    <t>hm and mec regions defined in Platypus should follow the indexing in the y direction.</t>
-  </si>
-  <si>
     <t>Factors at play</t>
   </si>
   <si>
@@ -552,6 +549,24 @@
   </si>
   <si>
     <t>model.matrix row index containing what region</t>
+  </si>
+  <si>
+    <t>Things to do</t>
+  </si>
+  <si>
+    <t>continue looking through hmMec and mec methods</t>
+  </si>
+  <si>
+    <t>flip the regions (only use this to validate that the inversion regions are assigned correct). We want to continue without inversion</t>
+  </si>
+  <si>
+    <t>Pull up the old main buildMatAB method and compare to the current</t>
+  </si>
+  <si>
+    <t>We can remove the dirichlet indexes which would remove the need for removing an, bn and rows and allows me to match the paper better. Also in Show I can add some code that adds an offset to draw the vac regions</t>
+  </si>
+  <si>
+    <t>To get the Bx, By plots to match 2019 paper results; sim at pixelDiv = 10</t>
   </si>
 </sst>
 </file>
@@ -764,7 +779,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -833,6 +848,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10014,8 +10033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11422,12 +11441,12 @@
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="A63" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
@@ -12540,38 +12559,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="26"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12753,29 +12772,29 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12792,34 +12811,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E3EC59-2651-4706-B929-4FC0A25DD1E7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>161</v>
+      <c r="A1" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31B9DE4-EBC0-4C7D-B8E9-88BD012686B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2531ED3-5802-4746-90BF-3A89C6C4202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
   <si>
     <t>File</t>
   </si>
@@ -539,34 +539,16 @@
     <t>Something interesting with figure 2 in 2019 is that the origin starts at back iron not in the vac region. This could mean that they just don’t actually use that region in the calculation since it basically just removeds bn at -inf and an at inf. So where I have hb in hmHm between vac and Back iron as 0.00405 it might need to be 0 instead</t>
   </si>
   <si>
-    <t>Rules:</t>
-  </si>
-  <si>
-    <t>Factors at play</t>
-  </si>
-  <si>
-    <t>model.matrix row y position</t>
-  </si>
-  <si>
-    <t>model.matrix row index containing what region</t>
-  </si>
-  <si>
     <t>Things to do</t>
   </si>
   <si>
-    <t>continue looking through hmMec and mec methods</t>
-  </si>
-  <si>
-    <t>flip the regions (only use this to validate that the inversion regions are assigned correct). We want to continue without inversion</t>
-  </si>
-  <si>
-    <t>Pull up the old main buildMatAB method and compare to the current</t>
-  </si>
-  <si>
     <t>We can remove the dirichlet indexes which would remove the need for removing an, bn and rows and allows me to match the paper better. Also in Show I can add some code that adds an offset to draw the vac regions</t>
   </si>
   <si>
-    <t>To get the Bx, By plots to match 2019 paper results; sim at pixelDiv = 10</t>
+    <t>What I know so far is that Cfg1 is more correct than Cfg2. They both have incorrect forces and Cfg1 has inverted forces compared to the paper and Cfg2. I can try the step to the right to improve the code. Otherwise start to work on the GA optimization to switch things up</t>
+  </si>
+  <si>
+    <t>For the GA, I can sim at pixeldivs = 5 since it is roughly as accurate as pixelDiv = 10</t>
   </si>
 </sst>
 </file>
@@ -853,8 +835,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9613,114 +9595,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>157753</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>17793</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>21261</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE126A33-0CA6-4372-BDA5-CEB3B3A8A3B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2908573" y="0"/>
-          <a:ext cx="4736840" cy="569901"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9614249-D5D3-41BC-AF35-48D6DCBC64E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="3547" b="6422"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2903220" y="609600"/>
-          <a:ext cx="4754880" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
   <autoFilter ref="A1:D56" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
@@ -10031,10 +9905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:D63"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10078,7 +9952,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -10103,7 +9977,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -11425,7 +11299,12 @@
       <c r="A60" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="D60" s="15" t="s">
         <v>153</v>
       </c>
@@ -11433,41 +11312,30 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>159</v>
+    <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="10"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="10"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="10"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="7"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A63:D63"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12811,10 +12679,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E3EC59-2651-4706-B929-4FC0A25DD1E7}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12824,47 +12692,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2531ED3-5802-4746-90BF-3A89C6C4202D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7D1E3-3F90-4DE6-96BC-DC982A1F5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -9908,7 +9908,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE7D1E3-3F90-4DE6-96BC-DC982A1F5ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5945D-02EE-4D2E-A05E-F3ADA74D50E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>File</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>For the GA, I can sim at pixeldivs = 5 since it is roughly as accurate as pixelDiv = 10</t>
+  </si>
+  <si>
+    <t>The result seems to be more accurate if flipped around x-axis for Bx and By plot in airgap. I think the upper coils near x = 0 do not contribute much to the airgap B field</t>
+  </si>
+  <si>
+    <t>First figure out which is the correct inversion direction: x or y and then think about how to get it to plot like that without having to invert anything</t>
   </si>
 </sst>
 </file>
@@ -9907,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11312,12 +11318,16 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="15"/>
+      <c r="B62" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5945D-02EE-4D2E-A05E-F3ADA74D50E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E8A0C-2FAA-482C-B965-ACD921036B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t>File</t>
   </si>
@@ -239,9 +239,6 @@
     <t>checkForErrors</t>
   </si>
   <si>
-    <t>dirichlet</t>
-  </si>
-  <si>
     <t>hmHm</t>
   </si>
   <si>
@@ -551,10 +548,10 @@
     <t>For the GA, I can sim at pixeldivs = 5 since it is roughly as accurate as pixelDiv = 10</t>
   </si>
   <si>
-    <t>The result seems to be more accurate if flipped around x-axis for Bx and By plot in airgap. I think the upper coils near x = 0 do not contribute much to the airgap B field</t>
-  </si>
-  <si>
-    <t>First figure out which is the correct inversion direction: x or y and then think about how to get it to plot like that without having to invert anything</t>
+    <t>Fairly certain the error does not lie here</t>
+  </si>
+  <si>
+    <t>the lack of B field due to upper solo coils could be due to my lack of understanding of MMF scaling. Could also be due to the HM part of the Bx continuity</t>
   </si>
 </sst>
 </file>
@@ -1070,30 +1067,30 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Audit!$C$57:$D$57</c:f>
+              <c:f>Audit!$C$56:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4300</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Audit!$C$57,Audit!$D$57)</c:f>
+              <c:f>(Audit!$C$56,Audit!$D$56)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1200</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4300</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9341,7 +9338,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4970145</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>67627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9602,8 +9599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D56" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
-  <autoFilter ref="A1:D56" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D55" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
+  <autoFilter ref="A1:D55" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{ADF9976C-3728-4AE8-9012-BAC5000E278E}" name="File" dataDxfId="3" dataCellStyle="20% - Accent6"/>
     <tableColumn id="2" xr3:uid="{DCF9D3B5-6084-45FA-BA63-46EDD5E814FA}" name="Function" dataDxfId="2" dataCellStyle="20% - Accent6"/>
@@ -9911,10 +9908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9969,7 +9966,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="7" t="str" cm="1">
-        <f t="array" ref="F2:I56">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
+        <f t="array" ref="F2:I55">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
         <v>LIM_Grid</v>
       </c>
       <c r="G2" s="7" t="str">
@@ -10045,7 +10042,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>mecHm</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -10069,7 +10066,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>dirichlet</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -10093,7 +10090,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>hmHm</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -10117,7 +10114,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>mecHm</v>
+        <v>preEqn8</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -10141,7 +10138,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>mec</v>
+        <v>postEqn8</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -10165,7 +10162,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>postEqn9</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -10189,7 +10186,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -10213,7 +10210,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>preEqn8</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -10237,7 +10234,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>postEqn8</v>
+        <v>preEqn21</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -10261,7 +10258,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>postEqn9</v>
+        <v>postEqn21</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10285,7 +10282,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -10302,14 +10299,14 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10325,15 +10322,15 @@
       <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="23">
-        <v>0</v>
+      <c r="C17" s="3">
+        <v>100</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>preEqn21</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10349,7 +10346,7 @@
       <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="23">
         <v>0</v>
       </c>
       <c r="D18" s="3"/>
@@ -10357,7 +10354,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>postEqn21</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -10366,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -10374,14 +10371,16 @@
         <v>61</v>
       </c>
       <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10395,7 +10394,7 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C20" s="23">
         <v>0</v>
@@ -10405,7 +10404,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10419,7 +10418,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" s="23">
         <v>0</v>
@@ -10429,7 +10428,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>updateLists</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -10443,17 +10442,17 @@
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C22" s="23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10467,17 +10466,17 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="23">
-        <v>100</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10491,9 +10490,9 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23">
         <v>0</v>
       </c>
       <c r="D24" s="3"/>
@@ -10501,7 +10500,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>genForces</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10515,7 +10514,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="23">
         <v>0</v>
@@ -10525,7 +10524,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>updateLists</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10539,7 +10538,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="23">
         <v>0</v>
@@ -10549,13 +10548,13 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>updateGrid</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
+      <c r="I26" s="7" t="str">
+        <v>There are some errors with .phiError</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -10563,17 +10562,17 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="23">
         <v>0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>colorFader</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10587,17 +10586,17 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="23">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>genForces</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -10611,17 +10610,17 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>determineColour</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -10635,23 +10634,23 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
       <c r="F30" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>updateGrid</v>
+        <v>minMaxField</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="str">
-        <v>There are some errors with .phiError</v>
+      <c r="I30" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -10659,7 +10658,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -10669,7 +10668,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>colorFader</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10682,8 +10681,8 @@
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>58</v>
+      <c r="B32" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -10693,7 +10692,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10706,8 +10705,8 @@
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>57</v>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -10717,7 +10716,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>determineColour</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -10731,7 +10730,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -10741,7 +10740,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>minMaxField</v>
+        <v>showModel</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -10755,17 +10754,17 @@
         <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -10779,17 +10778,17 @@
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>main</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -10803,17 +10802,17 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>destruct</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -10827,17 +10826,17 @@
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>Platypus</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>showModel</v>
+        <v>construct</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -10851,17 +10850,17 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>Platypus</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>jsonStoreSolution</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -10875,14 +10874,14 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
       </c>
       <c r="D40" s="3"/>
       <c r="F40" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>Platypus</v>
       </c>
       <c r="G40" s="7" t="str">
         <v>main</v>
@@ -10894,51 +10893,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="F41" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G41" s="7" t="str">
-        <v>destruct</v>
+        <v>LimMotor</v>
       </c>
       <c r="H41" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>157</v>
-      </c>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="F42" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G42" s="7" t="str">
-        <v>construct</v>
+        <v>Error</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I42" s="7">
         <v>0</v>
@@ -10949,20 +10948,20 @@
         <v>7</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
       <c r="D43" s="4"/>
       <c r="F43" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G43" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
@@ -10973,20 +10972,20 @@
         <v>7</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>main</v>
+        <v>timing</v>
       </c>
       <c r="H44" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44" s="7">
         <v>0</v>
@@ -10997,17 +10996,17 @@
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>LimMotor</v>
+        <v>Grid</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -11016,22 +11015,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>Error</v>
+        <v>Node</v>
       </c>
       <c r="H46" s="7">
         <v>100</v>
@@ -11045,17 +11044,17 @@
         <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>np_find_nearest</v>
+        <v>Region</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -11064,22 +11063,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
       <c r="D48" s="4"/>
       <c r="F48" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>timing</v>
+        <v>reluctance</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
@@ -11093,7 +11092,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -11103,7 +11102,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>Grid</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H49" s="7">
         <v>100</v>
@@ -11113,21 +11112,21 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
-      </c>
-      <c r="D50" s="4"/>
+      <c r="A50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5"/>
       <c r="F50" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>Node</v>
+        <v>buildGrid</v>
       </c>
       <c r="H50" s="7">
         <v>100</v>
@@ -11141,17 +11140,17 @@
         <v>8</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
       </c>
       <c r="D51" s="5"/>
       <c r="F51" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>Region</v>
+        <v>Model</v>
       </c>
       <c r="H51" s="7">
         <v>100</v>
@@ -11161,21 +11160,21 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="5"/>
+      <c r="A52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="F52" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>reluctance</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H52" s="7">
         <v>100</v>
@@ -11189,17 +11188,17 @@
         <v>40</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
       </c>
       <c r="D53" s="6"/>
       <c r="F53" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>hmHm</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
@@ -11213,23 +11212,23 @@
         <v>40</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
       </c>
       <c r="D54" s="6"/>
       <c r="F54" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>buildGrid</v>
+        <v>mec</v>
       </c>
       <c r="H54" s="7">
         <v>100</v>
       </c>
-      <c r="I54" s="7">
-        <v>0</v>
+      <c r="I54" s="7" t="str">
+        <v>Fairly certain the error does not lie here</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -11237,7 +11236,7 @@
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -11247,7 +11246,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>Model</v>
+        <v>postMECAvgB</v>
       </c>
       <c r="H55" s="7">
         <v>100</v>
@@ -11257,93 +11256,67 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="F56" s="7" t="str">
-        <v>LIM_Compute</v>
-      </c>
-      <c r="G56" s="7" t="str">
-        <v>postMECAvgB</v>
-      </c>
-      <c r="H56" s="7">
-        <v>100</v>
-      </c>
-      <c r="I56" s="7">
-        <v>0</v>
+      <c r="B56" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="7">
+        <f>SUM(TrackIssues5[Confidence])</f>
+        <v>1500</v>
+      </c>
+      <c r="D56" s="7">
+        <f>ROWS(TrackIssues5[Confidence]) *100 - C56</f>
+        <v>3900</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="7">
-        <f>SUM(TrackIssues5[Confidence])</f>
-        <v>1200</v>
-      </c>
-      <c r="D57" s="7">
-        <f>ROWS(TrackIssues5[Confidence]) *100 - C57</f>
-        <v>4300</v>
-      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="15"/>
+      <c r="E57" s="15"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
-      <c r="C58" s="15"/>
-      <c r="E58" s="15"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
+    <row r="59" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="27" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B61" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="21"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>164</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="10"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="7"/>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11371,7 +11344,7 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9">
         <v>5</v>
@@ -11379,13 +11352,13 @@
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8">
         <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -11410,13 +11383,13 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
@@ -11443,13 +11416,13 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -11490,13 +11463,13 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -11525,13 +11498,13 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="8">
         <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -11562,13 +11535,13 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="8">
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="8">
         <v>6</v>
@@ -11599,13 +11572,13 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="8">
         <v>164</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="8">
         <v>9</v>
@@ -11632,13 +11605,13 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8">
         <v>10</v>
@@ -11665,13 +11638,13 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="8">
         <v>164</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8">
         <v>11</v>
@@ -11700,13 +11673,13 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="8">
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8">
         <v>13</v>
@@ -11733,7 +11706,7 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="8">
         <v>3</v>
@@ -11741,13 +11714,13 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="8">
         <v>6</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="8">
         <v>43</v>
@@ -11896,13 +11869,13 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="8">
         <v>40</v>
@@ -12027,7 +12000,7 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -12035,7 +12008,7 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -12043,7 +12016,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -12051,7 +12024,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -12059,7 +12032,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="8">
         <v>16</v>
@@ -12067,7 +12040,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8">
         <v>1312</v>
@@ -12075,7 +12048,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" s="8">
         <v>100</v>
@@ -12104,306 +12077,306 @@
   <sheetData>
     <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="17">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="17">
         <v>6</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="17">
         <v>16</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17">
         <v>57</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="17">
         <v>50</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="18">
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="17">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="17">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="17">
         <v>20</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="17">
         <v>6.5</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="17">
         <v>2.7</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="17">
         <v>2</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="17">
         <v>8</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="17">
         <v>1000</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="17">
         <v>1</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="17">
         <v>1</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="17">
         <v>1</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
@@ -12438,7 +12411,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -12466,43 +12439,43 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>143</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
         <v>144</v>
       </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>145</v>
-      </c>
       <c r="J3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" t="s">
         <v>149</v>
-      </c>
-      <c r="K3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -12651,7 +12624,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -12702,7 +12675,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E8A0C-2FAA-482C-B965-ACD921036B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B8F1DC-6582-4A06-BFF4-00E0FEE839D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -9911,7 +9911,7 @@
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E04C6-1007-4B88-B6FB-6B51F5E5CCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E862CEC-82B4-4416-B8B9-278EBA5CC92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -534,12 +534,6 @@
     <t>the lack of B field due to upper solo coils could be due to the HM part of the Bx continuity</t>
   </si>
   <si>
-    <t>The error could be in post process. I can also look into how the Bx in airgap is solved. It uses HM so it should rely on an, bn. This means is there a conditional that says I not in self.xIdxsUpperA</t>
-  </si>
-  <si>
-    <t>Another big hint is that both Bx and By both experience the lack of upperCoil contribution</t>
-  </si>
-  <si>
     <t>I need to narrow the parts of the code causing trouble. Sections:
 pre-process
 understanding e.g MMF</t>
@@ -552,6 +546,12 @@
   </si>
   <si>
     <t>When 1 j / w Tper Fourier Series code perfectly approximates the waveform but why does the paper introduce the 2? I CAN LITERALLY PROVE IT. So the 2 must come from the hm side?</t>
+  </si>
+  <si>
+    <t>When I use Cfg3 I see that the 3rd last slot has an error compared to the shape in 2019. I checked MMF so it is likely coming from pre or post processing</t>
+  </si>
+  <si>
+    <t>&lt;-- Figure this out</t>
   </si>
 </sst>
 </file>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="63" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>156</v>
@@ -3546,21 +3546,21 @@
     </row>
     <row r="68" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E862CEC-82B4-4416-B8B9-278EBA5CC92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F307DB-7AAD-4781-81A1-36507B5D58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
   <si>
     <t>File</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>&lt;-- Figure this out</t>
+  </si>
+  <si>
+    <t>GETTING MEC WORKING without hm is possible and described in 2015 paper. MEC is also more accurate for changing material like cores which means it can be used without hm. \</t>
   </si>
 </sst>
 </file>
@@ -2099,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3563,9 +3566,42 @@
         <v>161</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A72:D76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F307DB-7AAD-4781-81A1-36507B5D58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3CAE8-BF8D-431F-8E65-46EEBEDC4A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
     <sheet name="TrackVars" sheetId="3" r:id="rId2"/>
-    <sheet name="TrackConstants" sheetId="4" r:id="rId3"/>
+    <sheet name="onlyMEC" sheetId="5" r:id="rId3"/>
+    <sheet name="TrackConstants" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>File</t>
   </si>
@@ -555,6 +556,27 @@
   </si>
   <si>
     <t>GETTING MEC WORKING without hm is possible and described in 2015 paper. MEC is also more accurate for changing material like cores which means it can be used without hm. \</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We know that the HAM model was the correct magnitude in only the places that the BC has coils. The upper coil sections are not right and only had the right magnitude if MMF was multiplied by 100</t>
+  </si>
+  <si>
+    <t>This is backed up in onlyMEC where the entire B field in airgap was off by factor of 100. The crossover of the B field in airgap is also wrong. This shouldn't be too hard to debug because we are only using MEC</t>
+  </si>
+  <si>
+    <t>I think that the MMF is correct since we were getting the correct magnitude use HAM which uses the bottom MMF nodes</t>
+  </si>
+  <si>
+    <t>Go over all the pre-process math and post-process for anything that has to do with MEC and compare to paper</t>
+  </si>
+  <si>
+    <t>I have tried to validate pre and post process onlyMEC . I cannot get the waveform or magnitude to change, following the papers rules.</t>
+  </si>
+  <si>
+    <t>Look into other papers 2015 2018 and other for MEC theory</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:D76"/>
     </sheetView>
   </sheetViews>
@@ -4344,6 +4366,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746B74A1-E2E9-411E-A31B-49675430CC3B}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470EA571-87DB-4BDA-819A-DD9B46927D19}">
   <dimension ref="A1:E22"/>
   <sheetViews>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E3CAE8-BF8D-431F-8E65-46EEBEDC4A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36328E2E-EA02-4703-87D7-24D14AA30009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
@@ -4370,7 +4370,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CodeErrorTracker.xlsx
+++ b/CodeErrorTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Masters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Masters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36328E2E-EA02-4703-87D7-24D14AA30009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E7B69-933B-47B9-9488-30B07769FDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{706D98CE-F3E1-459F-8932-AE27958A7F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit" sheetId="2" r:id="rId1"/>
@@ -484,9 +484,6 @@
     <t>Note: The assumptions I made I think can be explained. Conductivity of airgap was likely assumed to be 0, copper is not needed since it only occurs in the MEC region because sigma is only used in the lambda variable. All the permeabilities in other than iron were likely assumed to be 1.</t>
   </si>
   <si>
-    <t>DO IT NOW: I NEED TO EMAIL DR KAR ABOUT THE ANSYS HELP, THE FASTER THE BETTER (DON’T BE A PUSSY)</t>
-  </si>
-  <si>
     <t>Primary Length</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>Look into other papers 2015 2018 and other for MEC theory</t>
+  </si>
+  <si>
+    <t>Current Tasks: 1) Figure out how to have MEC work for all slot pole combinations (the windings need to be robust), 2) Figure out the efficiency calculation, 3) Figure out the MEC bug causing error, 4) Figure out ANSYS sims</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,6 +854,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1078,7 +1081,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Audit!$C$56:$D$56</c:f>
+              <c:f>Audit!$C$59:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1093,7 +1096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Audit!$C$56,Audit!$D$56)</c:f>
+              <c:f>(Audit!$C$59,Audit!$D$59)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1779,13 +1782,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4970145</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>67627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1815,8 +1818,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A1:D55" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
-  <autoFilter ref="A1:D55" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{60EB5FBB-D11D-4433-84D3-7B092CCCEB6C}" name="TrackIssues5" displayName="TrackIssues5" ref="A4:D58" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" dataCellStyle="20% - Accent6">
+  <autoFilter ref="A4:D58" xr:uid="{C8D5D691-17E1-48AF-BDAE-32A99C34863B}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{ADF9976C-3728-4AE8-9012-BAC5000E278E}" name="File" dataDxfId="3" dataCellStyle="20% - Accent6"/>
     <tableColumn id="2" xr3:uid="{DCF9D3B5-6084-45FA-BA63-46EDD5E814FA}" name="Function" dataDxfId="2" dataCellStyle="20% - Accent6"/>
@@ -2124,141 +2127,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE7BB8-5ABB-4E20-A918-8154C3182C64}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:D76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="21.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="83.6640625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="7"/>
+    <col min="6" max="6" width="21.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="83.7109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="F4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="7" t="str" cm="1">
-        <f t="array" ref="F2:I55">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
-        <v>LIM_Grid</v>
-      </c>
-      <c r="G2" s="7" t="str">
-        <v>checkSpatialMapping</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="7" t="str">
-        <v>LIM_Grid</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <v>setRegionIndices</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="F4" s="7" t="str">
-        <v>LIM_Grid</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <v>finalizeGrid</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="F5" s="7" t="str">
-        <v>LIM_Compute</v>
+      <c r="F5" s="7" t="str" cm="1">
+        <f t="array" ref="F5:I58">_xlfn._xlws.SORT(TrackIssues5[], 3, 1)</f>
+        <v>LIM_Grid</v>
       </c>
       <c r="G5" s="7" t="str">
-        <v>mecHm</v>
+        <v>checkSpatialMapping</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2267,22 +2225,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="14">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="F6" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G6" s="7" t="str">
-        <v>preEqn24_2018</v>
+        <v>setRegionIndices</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2291,22 +2249,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>100</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="F7" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G7" s="7" t="str">
-        <v>preEqn25_2018</v>
+        <v>finalizeGrid</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2315,22 +2273,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
       <c r="F8" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G8" s="7" t="str">
-        <v>preEqn8</v>
+        <v>mecHm</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2339,12 +2297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="14">
         <v>100</v>
@@ -2354,7 +2312,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G9" s="7" t="str">
-        <v>postEqn8</v>
+        <v>preEqn24_2018</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2363,12 +2321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" s="14">
         <v>100</v>
@@ -2378,7 +2336,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G10" s="7" t="str">
-        <v>postEqn9</v>
+        <v>preEqn25_2018</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2387,22 +2345,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G11" s="7" t="str">
-        <v>postEqn14to15</v>
+        <v>preEqn8</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2411,12 +2369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C12" s="14">
         <v>100</v>
@@ -2426,7 +2384,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G12" s="7" t="str">
-        <v>postEqn16to17</v>
+        <v>postEqn8</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2435,22 +2393,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1"/>
       <c r="F13" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G13" s="7" t="str">
-        <v>preEqn21</v>
+        <v>postEqn9</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2459,12 +2417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C14" s="14">
         <v>0</v>
@@ -2474,7 +2432,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G14" s="7" t="str">
-        <v>postEqn21</v>
+        <v>postEqn14to15</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2483,22 +2441,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14">
         <v>100</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="1"/>
       <c r="F15" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G15" s="7" t="str">
-        <v>eqn23Integral</v>
+        <v>postEqn16to17</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2507,22 +2465,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="3">
-        <v>100</v>
-      </c>
-      <c r="D16" s="3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="F16" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G16" s="7" t="str">
-        <v>checkForErrors</v>
+        <v>preEqn21</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2531,22 +2489,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3">
-        <v>100</v>
-      </c>
-      <c r="D17" s="3"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="F17" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G17" s="7" t="str">
-        <v>neighbourNodes</v>
+        <v>postEqn21</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2555,22 +2513,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G18" s="7" t="str">
-        <v>boundaryInfo</v>
+        <v>eqn23Integral</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2579,24 +2537,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="22">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3">
         <v>100</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="F19" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G19" s="7" t="str">
-        <v>reduceMatrix</v>
+        <v>checkForErrors</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2605,22 +2561,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="3">
+        <v>100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G20" s="7" t="str">
-        <v>buildMatAB</v>
+        <v>neighbourNodes</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2629,12 +2585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C21" s="22">
         <v>0</v>
@@ -2644,7 +2600,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G21" s="7" t="str">
-        <v>updateLists</v>
+        <v>boundaryInfo</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2653,22 +2609,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C22" s="22">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="F22" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G22" s="7" t="str">
-        <v>shiftHmIdxList</v>
+        <v>reduceMatrix</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2677,14 +2635,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="22">
         <v>0</v>
       </c>
       <c r="D23" s="3"/>
@@ -2692,7 +2650,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G23" s="7" t="str">
-        <v>finalizeCompute</v>
+        <v>buildMatAB</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2701,12 +2659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="22">
         <v>0</v>
@@ -2716,7 +2674,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G24" s="7" t="str">
-        <v>genForces</v>
+        <v>updateLists</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2725,22 +2683,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C25" s="22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G25" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>shiftHmIdxList</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2749,14 +2707,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="22">
+        <v>22</v>
+      </c>
+      <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3"/>
@@ -2764,31 +2722,31 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G26" s="7" t="str">
-        <v>updateGrid</v>
+        <v>finalizeCompute</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7" t="str">
-        <v>There are some errors with .phiError</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="22">
         <v>0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G27" s="7" t="str">
-        <v>colorFader</v>
+        <v>genForces</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -2797,22 +2755,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3">
+        <v>24</v>
+      </c>
+      <c r="C28" s="22">
         <v>0</v>
       </c>
       <c r="D28" s="3"/>
       <c r="F28" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G28" s="7" t="str">
-        <v>myColourNumber</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2821,38 +2779,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3">
+        <v>25</v>
+      </c>
+      <c r="C29" s="22">
         <v>0</v>
       </c>
       <c r="D29" s="3"/>
       <c r="F29" s="7" t="str">
-        <v>LIM_Show</v>
+        <v>LIM_Compute</v>
       </c>
       <c r="G29" s="7" t="str">
-        <v>determineColour</v>
+        <v>updateGrid</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="7" t="str">
+        <v>There are some errors with .phiError</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3">
+        <v>26</v>
+      </c>
+      <c r="C30" s="22">
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
@@ -2860,7 +2818,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G30" s="7" t="str">
-        <v>minMaxField</v>
+        <v>colorFader</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2869,12 +2827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -2884,7 +2842,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G31" s="7" t="str">
-        <v>combineFilterList</v>
+        <v>myColourNumber</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2893,12 +2851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>57</v>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -2908,7 +2866,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G32" s="7" t="str">
-        <v>genCanvasMatrix</v>
+        <v>determineColour</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2917,12 +2875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -2932,7 +2890,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G33" s="7" t="str">
-        <v>visualizeMatrix</v>
+        <v>minMaxField</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2941,12 +2899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -2956,7 +2914,7 @@
         <v>LIM_Show</v>
       </c>
       <c r="G34" s="7" t="str">
-        <v>showModel</v>
+        <v>combineFilterList</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2965,22 +2923,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
+      <c r="B35" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="3">
         <v>0</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G35" s="7" t="str">
-        <v>plotPointsAlongX</v>
+        <v>genCanvasMatrix</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -2989,22 +2947,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="3">
         <v>0</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="7" t="str">
-        <v>LIM_ShowFromJSON</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G36" s="7" t="str">
-        <v>main</v>
+        <v>visualizeMatrix</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3013,22 +2971,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_Show</v>
       </c>
       <c r="G37" s="7" t="str">
-        <v>destruct</v>
+        <v>showModel</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3037,22 +2995,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G38" s="7" t="str">
-        <v>construct</v>
+        <v>plotPointsAlongX</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3061,22 +3019,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="F39" s="7" t="str">
-        <v>Platypus</v>
+        <v>LIM_ShowFromJSON</v>
       </c>
       <c r="G39" s="7" t="str">
-        <v>jsonStoreSolution</v>
+        <v>main</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3085,12 +3043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -3100,7 +3058,7 @@
         <v>Platypus</v>
       </c>
       <c r="G40" s="7" t="str">
-        <v>main</v>
+        <v>destruct</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3109,96 +3067,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="F41" s="7" t="str">
+        <v>Platypus</v>
+      </c>
+      <c r="G41" s="7" t="str">
+        <v>construct</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="F42" s="7" t="str">
+        <v>Platypus</v>
+      </c>
+      <c r="G42" s="7" t="str">
+        <v>jsonStoreSolution</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="F43" s="7" t="str">
+        <v>Platypus</v>
+      </c>
+      <c r="G43" s="7" t="str">
+        <v>main</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F41" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
-      </c>
-      <c r="G41" s="7" t="str">
-        <v>LimMotor</v>
-      </c>
-      <c r="H41" s="7">
-        <v>100</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="F42" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
-      </c>
-      <c r="G42" s="7" t="str">
-        <v>Error</v>
-      </c>
-      <c r="H42" s="7">
-        <v>100</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="F43" s="7" t="str">
-        <v>LIM_SlotPoleCalculation</v>
-      </c>
-      <c r="G43" s="7" t="str">
-        <v>np_find_nearest</v>
-      </c>
-      <c r="H43" s="7">
-        <v>100</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
-      </c>
-      <c r="D44" s="4"/>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="F44" s="7" t="str">
         <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G44" s="7" t="str">
-        <v>timing</v>
+        <v>LimMotor</v>
       </c>
       <c r="H44" s="7">
         <v>100</v>
@@ -3207,22 +3165,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
       <c r="D45" s="4"/>
       <c r="F45" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G45" s="7" t="str">
-        <v>Grid</v>
+        <v>Error</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3231,22 +3189,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
       <c r="D46" s="4"/>
       <c r="F46" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G46" s="7" t="str">
-        <v>Node</v>
+        <v>np_find_nearest</v>
       </c>
       <c r="H46" s="7">
         <v>100</v>
@@ -3255,22 +3213,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="7" t="str">
-        <v>LIM_Grid</v>
+        <v>LIM_SlotPoleCalculation</v>
       </c>
       <c r="G47" s="7" t="str">
-        <v>Region</v>
+        <v>timing</v>
       </c>
       <c r="H47" s="7">
         <v>100</v>
@@ -3279,12 +3237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -3294,7 +3252,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G48" s="7" t="str">
-        <v>reluctance</v>
+        <v>Grid</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
@@ -3303,12 +3261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -3318,7 +3276,7 @@
         <v>LIM_Grid</v>
       </c>
       <c r="G49" s="7" t="str">
-        <v>meshBoundary</v>
+        <v>Node</v>
       </c>
       <c r="H49" s="7">
         <v>100</v>
@@ -3327,22 +3285,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="D50" s="5"/>
+    <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="F50" s="7" t="str">
         <v>LIM_Grid</v>
       </c>
       <c r="G50" s="7" t="str">
-        <v>buildGrid</v>
+        <v>Region</v>
       </c>
       <c r="H50" s="7">
         <v>100</v>
@@ -3351,22 +3309,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
-      </c>
-      <c r="D51" s="5"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="F51" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G51" s="7" t="str">
-        <v>Model</v>
+        <v>reluctance</v>
       </c>
       <c r="H51" s="7">
         <v>100</v>
@@ -3375,22 +3333,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="F52" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G52" s="7" t="str">
-        <v>linalg_lu</v>
+        <v>meshBoundary</v>
       </c>
       <c r="H52" s="7">
         <v>100</v>
@@ -3399,22 +3357,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5"/>
       <c r="F53" s="7" t="str">
-        <v>LIM_Compute</v>
+        <v>LIM_Grid</v>
       </c>
       <c r="G53" s="7" t="str">
-        <v>hmHm</v>
+        <v>buildGrid</v>
       </c>
       <c r="H53" s="7">
         <v>100</v>
@@ -3423,36 +3381,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0</v>
-      </c>
-      <c r="D54" s="6"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5"/>
       <c r="F54" s="7" t="str">
         <v>LIM_Compute</v>
       </c>
       <c r="G54" s="7" t="str">
-        <v>mec</v>
+        <v>Model</v>
       </c>
       <c r="H54" s="7">
         <v>100</v>
       </c>
-      <c r="I54" s="7" t="str">
-        <v>Fairly certain the error does not lie here</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -3462,7 +3420,7 @@
         <v>LIM_Compute</v>
       </c>
       <c r="G55" s="7" t="str">
-        <v>postMECAvgB</v>
+        <v>linalg_lu</v>
       </c>
       <c r="H55" s="7">
         <v>100</v>
@@ -3471,159 +3429,230 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="F56" s="7" t="str">
+        <v>LIM_Compute</v>
+      </c>
+      <c r="G56" s="7" t="str">
+        <v>hmHm</v>
+      </c>
+      <c r="H56" s="7">
+        <v>100</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="F57" s="7" t="str">
+        <v>LIM_Compute</v>
+      </c>
+      <c r="G57" s="7" t="str">
+        <v>mec</v>
+      </c>
+      <c r="H57" s="7">
+        <v>100</v>
+      </c>
+      <c r="I57" s="7" t="str">
+        <v>Fairly certain the error does not lie here</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="F58" s="7" t="str">
+        <v>LIM_Compute</v>
+      </c>
+      <c r="G58" s="7" t="str">
+        <v>postMECAvgB</v>
+      </c>
+      <c r="H58" s="7">
+        <v>100</v>
+      </c>
+      <c r="I58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C59" s="7">
         <f>SUM(TrackIssues5[Confidence])</f>
         <v>1500</v>
       </c>
-      <c r="D56" s="7">
-        <f>ROWS(TrackIssues5[Confidence]) *100 - C56</f>
+      <c r="D59" s="7">
+        <f>ROWS(TrackIssues5[Confidence]) *100 - C59</f>
         <v>3900</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="15"/>
-      <c r="E57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="7"/>
+      <c r="C60" s="15"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="20" t="s">
+      <c r="B64" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="B66" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="15"/>
+      <c r="C67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+      <c r="B69" s="10">
+        <v>237.5</v>
+      </c>
+      <c r="C69" s="7">
+        <v>522.5</v>
+      </c>
+      <c r="D69" s="7">
+        <f>B69/C69</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="10">
-        <v>237.5</v>
-      </c>
-      <c r="C66" s="7">
-        <v>522.5</v>
-      </c>
-      <c r="D66" s="7">
-        <f>B66/C66</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="10" t="s">
+    </row>
+    <row r="73" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A72:D76"/>
+  <mergeCells count="3">
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="A75:D79"/>
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3642,13 +3671,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>91</v>
       </c>
@@ -3656,7 +3685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
@@ -3687,7 +3716,7 @@
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>64</v>
       </c>
@@ -3720,7 +3749,7 @@
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
@@ -3767,7 +3796,7 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>66</v>
       </c>
@@ -3802,7 +3831,7 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -3839,7 +3868,7 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
@@ -3876,7 +3905,7 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
@@ -3909,7 +3938,7 @@
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>70</v>
       </c>
@@ -3942,7 +3971,7 @@
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -3977,7 +4006,7 @@
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>72</v>
       </c>
@@ -4010,7 +4039,7 @@
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>73</v>
       </c>
@@ -4018,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>74</v>
       </c>
@@ -4173,7 +4202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>75</v>
       </c>
@@ -4304,7 +4333,7 @@
       <c r="AY14" s="8"/>
       <c r="AZ14" s="8"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>76</v>
       </c>
@@ -4312,7 +4341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>77</v>
       </c>
@@ -4320,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
@@ -4328,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>79</v>
       </c>
@@ -4336,7 +4365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -4344,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
@@ -4352,7 +4381,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>94</v>
       </c>
@@ -4369,45 +4398,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746B74A1-E2E9-411E-A31B-49675430CC3B}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4423,15 +4452,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="16"/>
-    <col min="5" max="5" width="31.5546875" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="16"/>
+    <col min="1" max="1" width="31.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="16"/>
+    <col min="5" max="5" width="31.5703125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>116</v>
       </c>
@@ -4448,7 +4477,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>117</v>
       </c>
@@ -4465,7 +4494,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>118</v>
       </c>
@@ -4479,7 +4508,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>119</v>
       </c>
@@ -4493,7 +4522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>120</v>
       </c>
@@ -4507,7 +4536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>121</v>
       </c>
@@ -4521,7 +4550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>122</v>
       </c>
@@ -4535,7 +4564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>123</v>
       </c>
@@ -4549,7 +4578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>124</v>
       </c>
@@ -4563,7 +4592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>125</v>
       </c>
@@ -4577,7 +4606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>126</v>
       </c>
@@ -4591,7 +4620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>127</v>
       </c>
@@ -4605,7 +4634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>128</v>
       </c>
@@ -4619,7 +4648,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>129</v>
       </c>
@@ -4633,7 +4662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>130</v>
       </c>
@@ -4647,7 +4676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>132</v>
       </c>
@@ -4659,7 +4688,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>134</v>
       </c>
@@ -4671,7 +4700,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>131</v>
       </c>
@@ -4685,7 +4714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>136</v>
       </c>
@@ -4699,7 +4728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>137</v>
       </c>
@@ -4713,7 +4742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>138</v>
       </c>
@@ -4727,12 +4756,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="C22" s="16">
         <v>0</v>
